--- a/Altersverteilung/raw_data/Altersverteilung_2021-04-06.xlsx
+++ b/Altersverteilung/raw_data/Altersverteilung_2021-04-06.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-03-30\Webmaster_Tabellen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F0A8D-95C9-4C69-8D85-032C37C6810F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE23BAC-33BB-4291-B404-DA5924948E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="Inzidenzen" sheetId="3" r:id="rId2"/>
+    <sheet name="Inzidenzen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Altersgruppe</t>
-  </si>
-  <si>
-    <t>2020_14</t>
   </si>
   <si>
     <t>2020_15</t>
@@ -182,6 +174,9 @@
     <t>2021_12</t>
   </si>
   <si>
+    <t>2021_13</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -236,13 +231,10 @@
     <t>0 - 4</t>
   </si>
   <si>
-    <t>10 - 14</t>
+    <t xml:space="preserve">5 - 9 </t>
   </si>
   <si>
-    <t>5 - 9</t>
-  </si>
-  <si>
-    <t>5 - 10</t>
+    <t>10 - 14</t>
   </si>
 </sst>
 </file>
@@ -726,8 +718,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1086,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,160 +1252,160 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>36083</v>
+        <v>27185</v>
       </c>
       <c r="C2">
-        <v>27181</v>
+        <v>17360</v>
       </c>
       <c r="D2">
-        <v>17365</v>
+        <v>12379</v>
       </c>
       <c r="E2">
-        <v>12375</v>
+        <v>7441</v>
       </c>
       <c r="F2">
-        <v>7444</v>
+        <v>6240</v>
       </c>
       <c r="G2">
-        <v>6239</v>
+        <v>4768</v>
       </c>
       <c r="H2">
-        <v>4758</v>
+        <v>3613</v>
       </c>
       <c r="I2">
-        <v>3621</v>
+        <v>3204</v>
       </c>
       <c r="J2">
-        <v>3205</v>
+        <v>2352</v>
       </c>
       <c r="K2">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="L2">
-        <v>2342</v>
+        <v>4125</v>
       </c>
       <c r="M2">
-        <v>4125</v>
+        <v>3213</v>
       </c>
       <c r="N2">
-        <v>3213</v>
+        <v>2691</v>
       </c>
       <c r="O2">
-        <v>2691</v>
+        <v>2427</v>
       </c>
       <c r="P2">
-        <v>2428</v>
+        <v>3016</v>
       </c>
       <c r="Q2">
-        <v>3015</v>
+        <v>3928</v>
       </c>
       <c r="R2">
-        <v>3929</v>
+        <v>4822</v>
       </c>
       <c r="S2">
-        <v>4817</v>
+        <v>6057</v>
       </c>
       <c r="T2">
-        <v>6056</v>
+        <v>7949</v>
       </c>
       <c r="U2">
-        <v>7949</v>
+        <v>9591</v>
       </c>
       <c r="V2">
-        <v>9591</v>
+        <v>8820</v>
       </c>
       <c r="W2">
-        <v>8821</v>
+        <v>8620</v>
       </c>
       <c r="X2">
-        <v>8619</v>
+        <v>9771</v>
       </c>
       <c r="Y2">
-        <v>9773</v>
+        <v>12296</v>
       </c>
       <c r="Z2">
-        <v>12294</v>
+        <v>13063</v>
       </c>
       <c r="AA2">
-        <v>13063</v>
+        <v>15932</v>
       </c>
       <c r="AB2">
-        <v>15930</v>
+        <v>26128</v>
       </c>
       <c r="AC2">
-        <v>26126</v>
+        <v>42089</v>
       </c>
       <c r="AD2">
-        <v>42087</v>
+        <v>74836</v>
       </c>
       <c r="AE2">
-        <v>74828</v>
+        <v>111099</v>
       </c>
       <c r="AF2">
-        <v>111096</v>
+        <v>125818</v>
       </c>
       <c r="AG2">
-        <v>125805</v>
+        <v>127869</v>
       </c>
       <c r="AH2">
-        <v>127868</v>
+        <v>128469</v>
       </c>
       <c r="AI2">
-        <v>128476</v>
+        <v>123291</v>
       </c>
       <c r="AJ2">
-        <v>123287</v>
+        <v>128510</v>
       </c>
       <c r="AK2">
-        <v>128502</v>
+        <v>156531</v>
       </c>
       <c r="AL2">
-        <v>156533</v>
+        <v>174934</v>
       </c>
       <c r="AM2">
-        <v>174930</v>
+        <v>139232</v>
       </c>
       <c r="AN2">
-        <v>139245</v>
+        <v>123201</v>
       </c>
       <c r="AO2">
-        <v>123184</v>
+        <v>145488</v>
       </c>
       <c r="AP2">
-        <v>145482</v>
+        <v>119010</v>
       </c>
       <c r="AQ2">
-        <v>118986</v>
+        <v>95585</v>
       </c>
       <c r="AR2">
-        <v>95584</v>
+        <v>78245</v>
       </c>
       <c r="AS2">
-        <v>78253</v>
+        <v>64672</v>
       </c>
       <c r="AT2">
-        <v>64648</v>
+        <v>50869</v>
       </c>
       <c r="AU2">
-        <v>50865</v>
+        <v>52517</v>
       </c>
       <c r="AV2">
-        <v>52506</v>
+        <v>56498</v>
       </c>
       <c r="AW2">
-        <v>56480</v>
+        <v>58514</v>
       </c>
       <c r="AX2">
-        <v>58492</v>
+        <v>71459</v>
       </c>
       <c r="AY2">
-        <v>71416</v>
+        <v>92782</v>
       </c>
       <c r="AZ2">
-        <v>92574</v>
+        <v>116633</v>
       </c>
       <c r="BA2">
-        <v>114770</v>
+        <v>108738</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -1419,160 +1413,160 @@
         <v>54</v>
       </c>
       <c r="B3">
-        <v>1171</v>
+        <v>1243</v>
       </c>
       <c r="C3">
-        <v>1243</v>
+        <v>848</v>
       </c>
       <c r="D3">
-        <v>848</v>
+        <v>581</v>
       </c>
       <c r="E3">
-        <v>581</v>
+        <v>285</v>
       </c>
       <c r="F3">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="G3">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="H3">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M3">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>39</v>
+      </c>
+      <c r="S3">
         <v>28</v>
       </c>
-      <c r="O3">
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>29</v>
+      </c>
+      <c r="W3">
         <v>24</v>
       </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>27</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>39</v>
-      </c>
-      <c r="T3">
-        <v>28</v>
-      </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>18</v>
-      </c>
-      <c r="W3">
-        <v>29</v>
-      </c>
       <c r="X3">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="Y3">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="Z3">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AA3">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AB3">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="AC3">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="AD3">
-        <v>438</v>
+        <v>885</v>
       </c>
       <c r="AE3">
-        <v>887</v>
+        <v>1466</v>
       </c>
       <c r="AF3">
-        <v>1466</v>
+        <v>1725</v>
       </c>
       <c r="AG3">
-        <v>1725</v>
+        <v>2317</v>
       </c>
       <c r="AH3">
-        <v>2316</v>
+        <v>3073</v>
       </c>
       <c r="AI3">
-        <v>3073</v>
+        <v>3514</v>
       </c>
       <c r="AJ3">
-        <v>3514</v>
+        <v>4186</v>
       </c>
       <c r="AK3">
-        <v>4187</v>
+        <v>5411</v>
       </c>
       <c r="AL3">
-        <v>5411</v>
+        <v>5980</v>
       </c>
       <c r="AM3">
-        <v>5980</v>
+        <v>5256</v>
       </c>
       <c r="AN3">
-        <v>5259</v>
+        <v>4977</v>
       </c>
       <c r="AO3">
-        <v>4975</v>
+        <v>5418</v>
       </c>
       <c r="AP3">
-        <v>5417</v>
+        <v>5039</v>
       </c>
       <c r="AQ3">
-        <v>5037</v>
+        <v>3944</v>
       </c>
       <c r="AR3">
-        <v>3944</v>
+        <v>2882</v>
       </c>
       <c r="AS3">
-        <v>2884</v>
+        <v>1937</v>
       </c>
       <c r="AT3">
-        <v>1937</v>
+        <v>1303</v>
       </c>
       <c r="AU3">
-        <v>1303</v>
+        <v>1072</v>
       </c>
       <c r="AV3">
-        <v>1071</v>
+        <v>834</v>
       </c>
       <c r="AW3">
-        <v>834</v>
+        <v>615</v>
       </c>
       <c r="AX3">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AY3">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="AZ3">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="BA3">
-        <v>667</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
@@ -1580,160 +1574,160 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>1447</v>
+        <v>1425</v>
       </c>
       <c r="C4">
-        <v>1425</v>
+        <v>925</v>
       </c>
       <c r="D4">
-        <v>925</v>
+        <v>681</v>
       </c>
       <c r="E4">
-        <v>681</v>
+        <v>326</v>
       </c>
       <c r="F4">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="G4">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="H4">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="I4">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>51</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N4">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>34</v>
+      </c>
+      <c r="R4">
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <v>40</v>
+      </c>
+      <c r="T4">
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
         <v>33</v>
       </c>
-      <c r="O4">
-        <v>28</v>
-      </c>
-      <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4">
-        <v>24</v>
-      </c>
-      <c r="R4">
-        <v>34</v>
-      </c>
-      <c r="S4">
-        <v>41</v>
-      </c>
-      <c r="T4">
-        <v>40</v>
-      </c>
-      <c r="U4">
-        <v>56</v>
-      </c>
-      <c r="V4">
-        <v>23</v>
-      </c>
       <c r="W4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="X4">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="Y4">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="Z4">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AA4">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="AB4">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="AC4">
-        <v>306</v>
+        <v>576</v>
       </c>
       <c r="AD4">
-        <v>575</v>
+        <v>1146</v>
       </c>
       <c r="AE4">
-        <v>1147</v>
+        <v>1786</v>
       </c>
       <c r="AF4">
-        <v>1785</v>
+        <v>2290</v>
       </c>
       <c r="AG4">
-        <v>2290</v>
+        <v>2829</v>
       </c>
       <c r="AH4">
-        <v>2830</v>
+        <v>3372</v>
       </c>
       <c r="AI4">
-        <v>3372</v>
+        <v>4096</v>
       </c>
       <c r="AJ4">
-        <v>4097</v>
+        <v>4599</v>
       </c>
       <c r="AK4">
-        <v>4598</v>
+        <v>5927</v>
       </c>
       <c r="AL4">
-        <v>5929</v>
+        <v>6947</v>
       </c>
       <c r="AM4">
-        <v>6947</v>
+        <v>5861</v>
       </c>
       <c r="AN4">
-        <v>5867</v>
+        <v>5591</v>
       </c>
       <c r="AO4">
-        <v>5591</v>
+        <v>6080</v>
       </c>
       <c r="AP4">
-        <v>6080</v>
+        <v>5554</v>
       </c>
       <c r="AQ4">
-        <v>5550</v>
+        <v>4454</v>
       </c>
       <c r="AR4">
-        <v>4454</v>
+        <v>3323</v>
       </c>
       <c r="AS4">
-        <v>3325</v>
+        <v>2580</v>
       </c>
       <c r="AT4">
-        <v>2579</v>
+        <v>1656</v>
       </c>
       <c r="AU4">
-        <v>1655</v>
+        <v>1466</v>
       </c>
       <c r="AV4">
-        <v>1465</v>
+        <v>1206</v>
       </c>
       <c r="AW4">
-        <v>1206</v>
+        <v>961</v>
       </c>
       <c r="AX4">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="AY4">
-        <v>941</v>
+        <v>1116</v>
       </c>
       <c r="AZ4">
-        <v>1111</v>
+        <v>1264</v>
       </c>
       <c r="BA4">
-        <v>1237</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
@@ -1741,160 +1735,160 @@
         <v>56</v>
       </c>
       <c r="B5">
-        <v>1966</v>
+        <v>1715</v>
       </c>
       <c r="C5">
-        <v>1715</v>
+        <v>1181</v>
       </c>
       <c r="D5">
-        <v>1181</v>
+        <v>822</v>
       </c>
       <c r="E5">
-        <v>822</v>
+        <v>452</v>
       </c>
       <c r="F5">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="H5">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="I5">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="J5">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L5">
         <v>62</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N5">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>36</v>
+      </c>
+      <c r="P5">
+        <v>38</v>
+      </c>
+      <c r="Q5">
         <v>51</v>
       </c>
-      <c r="O5">
-        <v>49</v>
-      </c>
-      <c r="P5">
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <v>38</v>
-      </c>
       <c r="R5">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="S5">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="T5">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U5">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="V5">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="W5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X5">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="Y5">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="Z5">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AA5">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="AB5">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="AC5">
-        <v>470</v>
+        <v>857</v>
       </c>
       <c r="AD5">
-        <v>857</v>
+        <v>1837</v>
       </c>
       <c r="AE5">
-        <v>1837</v>
+        <v>2839</v>
       </c>
       <c r="AF5">
-        <v>2839</v>
+        <v>3433</v>
       </c>
       <c r="AG5">
-        <v>3434</v>
+        <v>3807</v>
       </c>
       <c r="AH5">
-        <v>3806</v>
+        <v>4359</v>
       </c>
       <c r="AI5">
-        <v>4361</v>
+        <v>4782</v>
       </c>
       <c r="AJ5">
-        <v>4782</v>
+        <v>5450</v>
       </c>
       <c r="AK5">
-        <v>5449</v>
+        <v>7090</v>
       </c>
       <c r="AL5">
-        <v>7090</v>
+        <v>8278</v>
       </c>
       <c r="AM5">
-        <v>8276</v>
+        <v>7439</v>
       </c>
       <c r="AN5">
-        <v>7438</v>
+        <v>6874</v>
       </c>
       <c r="AO5">
-        <v>6874</v>
+        <v>7668</v>
       </c>
       <c r="AP5">
-        <v>7668</v>
+        <v>6688</v>
       </c>
       <c r="AQ5">
-        <v>6687</v>
+        <v>5328</v>
       </c>
       <c r="AR5">
-        <v>5327</v>
+        <v>4189</v>
       </c>
       <c r="AS5">
-        <v>4189</v>
+        <v>3150</v>
       </c>
       <c r="AT5">
-        <v>3149</v>
+        <v>2301</v>
       </c>
       <c r="AU5">
-        <v>2300</v>
+        <v>2003</v>
       </c>
       <c r="AV5">
-        <v>2001</v>
+        <v>1781</v>
       </c>
       <c r="AW5">
-        <v>1780</v>
+        <v>1552</v>
       </c>
       <c r="AX5">
-        <v>1551</v>
+        <v>1644</v>
       </c>
       <c r="AY5">
-        <v>1639</v>
+        <v>1806</v>
       </c>
       <c r="AZ5">
-        <v>1804</v>
+        <v>2139</v>
       </c>
       <c r="BA5">
-        <v>2106</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
@@ -1902,160 +1896,160 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <v>1788</v>
+        <v>1316</v>
       </c>
       <c r="C6">
-        <v>1316</v>
+        <v>854</v>
       </c>
       <c r="D6">
-        <v>854</v>
+        <v>587</v>
       </c>
       <c r="E6">
-        <v>587</v>
+        <v>351</v>
       </c>
       <c r="F6">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="G6">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="H6">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="I6">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N6">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>40</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="R6">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="S6">
+        <v>55</v>
+      </c>
+      <c r="T6">
         <v>71</v>
       </c>
-      <c r="T6">
-        <v>55</v>
-      </c>
       <c r="U6">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W6">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="X6">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="Y6">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Z6">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="AA6">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="AB6">
-        <v>310</v>
+        <v>503</v>
       </c>
       <c r="AC6">
-        <v>503</v>
+        <v>903</v>
       </c>
       <c r="AD6">
-        <v>903</v>
+        <v>1626</v>
       </c>
       <c r="AE6">
-        <v>1626</v>
+        <v>2651</v>
       </c>
       <c r="AF6">
-        <v>2651</v>
+        <v>3052</v>
       </c>
       <c r="AG6">
-        <v>3053</v>
+        <v>3290</v>
       </c>
       <c r="AH6">
-        <v>3291</v>
+        <v>3386</v>
       </c>
       <c r="AI6">
-        <v>3387</v>
+        <v>3495</v>
       </c>
       <c r="AJ6">
-        <v>3495</v>
+        <v>3978</v>
       </c>
       <c r="AK6">
-        <v>3978</v>
+        <v>4997</v>
       </c>
       <c r="AL6">
-        <v>4996</v>
+        <v>5949</v>
       </c>
       <c r="AM6">
-        <v>5949</v>
+        <v>5120</v>
       </c>
       <c r="AN6">
-        <v>5119</v>
+        <v>4644</v>
       </c>
       <c r="AO6">
-        <v>4645</v>
+        <v>5223</v>
       </c>
       <c r="AP6">
-        <v>5224</v>
+        <v>4322</v>
       </c>
       <c r="AQ6">
-        <v>4319</v>
+        <v>3411</v>
       </c>
       <c r="AR6">
-        <v>3412</v>
+        <v>2827</v>
       </c>
       <c r="AS6">
-        <v>2826</v>
+        <v>2212</v>
       </c>
       <c r="AT6">
-        <v>2209</v>
+        <v>1698</v>
       </c>
       <c r="AU6">
-        <v>1699</v>
+        <v>1717</v>
       </c>
       <c r="AV6">
-        <v>1713</v>
+        <v>1583</v>
       </c>
       <c r="AW6">
-        <v>1582</v>
+        <v>1366</v>
       </c>
       <c r="AX6">
-        <v>1365</v>
+        <v>1439</v>
       </c>
       <c r="AY6">
-        <v>1437</v>
+        <v>1895</v>
       </c>
       <c r="AZ6">
-        <v>1890</v>
+        <v>2226</v>
       </c>
       <c r="BA6">
-        <v>2183</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
@@ -2063,160 +2057,160 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <v>1417</v>
+        <v>1049</v>
       </c>
       <c r="C7">
-        <v>1049</v>
+        <v>631</v>
       </c>
       <c r="D7">
-        <v>631</v>
+        <v>424</v>
       </c>
       <c r="E7">
-        <v>424</v>
+        <v>275</v>
       </c>
       <c r="F7">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="G7">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="H7">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="I7">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
         <v>40</v>
       </c>
-      <c r="M7">
-        <v>58</v>
-      </c>
       <c r="N7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O7">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="P7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="S7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T7">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="U7">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="V7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="X7">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="Y7">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="Z7">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AA7">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="AB7">
-        <v>349</v>
+        <v>587</v>
       </c>
       <c r="AC7">
-        <v>587</v>
+        <v>934</v>
       </c>
       <c r="AD7">
-        <v>934</v>
+        <v>1800</v>
       </c>
       <c r="AE7">
-        <v>1800</v>
+        <v>2881</v>
       </c>
       <c r="AF7">
-        <v>2881</v>
+        <v>3182</v>
       </c>
       <c r="AG7">
-        <v>3181</v>
+        <v>3299</v>
       </c>
       <c r="AH7">
-        <v>3297</v>
+        <v>3356</v>
       </c>
       <c r="AI7">
-        <v>3358</v>
+        <v>3197</v>
       </c>
       <c r="AJ7">
-        <v>3197</v>
+        <v>3485</v>
       </c>
       <c r="AK7">
-        <v>3485</v>
+        <v>4390</v>
       </c>
       <c r="AL7">
-        <v>4391</v>
+        <v>5171</v>
       </c>
       <c r="AM7">
-        <v>5171</v>
+        <v>4453</v>
       </c>
       <c r="AN7">
-        <v>4453</v>
+        <v>4138</v>
       </c>
       <c r="AO7">
-        <v>4138</v>
+        <v>4826</v>
       </c>
       <c r="AP7">
-        <v>4825</v>
+        <v>3661</v>
       </c>
       <c r="AQ7">
-        <v>3662</v>
+        <v>3064</v>
       </c>
       <c r="AR7">
-        <v>3065</v>
+        <v>2483</v>
       </c>
       <c r="AS7">
-        <v>2483</v>
+        <v>2064</v>
       </c>
       <c r="AT7">
-        <v>2064</v>
+        <v>1579</v>
       </c>
       <c r="AU7">
-        <v>1579</v>
+        <v>1597</v>
       </c>
       <c r="AV7">
-        <v>1597</v>
+        <v>1648</v>
       </c>
       <c r="AW7">
-        <v>1647</v>
+        <v>1560</v>
       </c>
       <c r="AX7">
-        <v>1560</v>
+        <v>1809</v>
       </c>
       <c r="AY7">
-        <v>1807</v>
+        <v>2385</v>
       </c>
       <c r="AZ7">
-        <v>2380</v>
+        <v>2849</v>
       </c>
       <c r="BA7">
-        <v>2792</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
@@ -2224,160 +2218,160 @@
         <v>59</v>
       </c>
       <c r="B8">
-        <v>1692</v>
+        <v>1117</v>
       </c>
       <c r="C8">
-        <v>1117</v>
+        <v>662</v>
       </c>
       <c r="D8">
-        <v>662</v>
+        <v>504</v>
       </c>
       <c r="E8">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="F8">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="H8">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I8">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O8">
         <v>62</v>
       </c>
       <c r="P8">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q8">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="R8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S8">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="T8">
+        <v>110</v>
+      </c>
+      <c r="U8">
         <v>121</v>
       </c>
-      <c r="U8">
-        <v>110</v>
-      </c>
       <c r="V8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="W8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="X8">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="Y8">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="Z8">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="AA8">
-        <v>304</v>
+        <v>451</v>
       </c>
       <c r="AB8">
-        <v>451</v>
+        <v>685</v>
       </c>
       <c r="AC8">
-        <v>685</v>
+        <v>1284</v>
       </c>
       <c r="AD8">
-        <v>1284</v>
+        <v>2267</v>
       </c>
       <c r="AE8">
-        <v>2266</v>
+        <v>3553</v>
       </c>
       <c r="AF8">
-        <v>3551</v>
+        <v>4258</v>
       </c>
       <c r="AG8">
-        <v>4257</v>
+        <v>4015</v>
       </c>
       <c r="AH8">
-        <v>4015</v>
+        <v>4152</v>
       </c>
       <c r="AI8">
-        <v>4152</v>
+        <v>4142</v>
       </c>
       <c r="AJ8">
-        <v>4141</v>
+        <v>4124</v>
       </c>
       <c r="AK8">
-        <v>4125</v>
+        <v>5177</v>
       </c>
       <c r="AL8">
-        <v>5177</v>
+        <v>6353</v>
       </c>
       <c r="AM8">
-        <v>6351</v>
+        <v>5591</v>
       </c>
       <c r="AN8">
-        <v>5591</v>
+        <v>4980</v>
       </c>
       <c r="AO8">
-        <v>4980</v>
+        <v>5719</v>
       </c>
       <c r="AP8">
-        <v>5715</v>
+        <v>4415</v>
       </c>
       <c r="AQ8">
-        <v>4415</v>
+        <v>3626</v>
       </c>
       <c r="AR8">
-        <v>3627</v>
+        <v>3127</v>
       </c>
       <c r="AS8">
-        <v>3126</v>
+        <v>2535</v>
       </c>
       <c r="AT8">
-        <v>2535</v>
+        <v>1921</v>
       </c>
       <c r="AU8">
-        <v>1921</v>
+        <v>2047</v>
       </c>
       <c r="AV8">
-        <v>2047</v>
+        <v>2128</v>
       </c>
       <c r="AW8">
-        <v>2128</v>
+        <v>1997</v>
       </c>
       <c r="AX8">
-        <v>1998</v>
+        <v>2297</v>
       </c>
       <c r="AY8">
-        <v>2294</v>
+        <v>3199</v>
       </c>
       <c r="AZ8">
-        <v>3188</v>
+        <v>3912</v>
       </c>
       <c r="BA8">
-        <v>3833</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
@@ -2385,160 +2379,160 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>2780</v>
+        <v>1792</v>
       </c>
       <c r="C9">
-        <v>1793</v>
+        <v>1086</v>
       </c>
       <c r="D9">
-        <v>1086</v>
+        <v>674</v>
       </c>
       <c r="E9">
-        <v>674</v>
+        <v>405</v>
       </c>
       <c r="F9">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="G9">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="H9">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="I9">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J9">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="K9">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L9">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N9">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O9">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="P9">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q9">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="R9">
         <v>152</v>
       </c>
       <c r="S9">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="T9">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="U9">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="V9">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="W9">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="X9">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="Y9">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="Z9">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="AA9">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="AB9">
-        <v>681</v>
+        <v>1271</v>
       </c>
       <c r="AC9">
-        <v>1270</v>
+        <v>2120</v>
       </c>
       <c r="AD9">
-        <v>2119</v>
+        <v>3960</v>
       </c>
       <c r="AE9">
-        <v>3959</v>
+        <v>5996</v>
       </c>
       <c r="AF9">
-        <v>5996</v>
+        <v>6868</v>
       </c>
       <c r="AG9">
-        <v>6864</v>
+        <v>6915</v>
       </c>
       <c r="AH9">
-        <v>6914</v>
+        <v>7309</v>
       </c>
       <c r="AI9">
-        <v>7311</v>
+        <v>7001</v>
       </c>
       <c r="AJ9">
-        <v>7001</v>
+        <v>7652</v>
       </c>
       <c r="AK9">
-        <v>7652</v>
+        <v>9437</v>
       </c>
       <c r="AL9">
-        <v>9437</v>
+        <v>11028</v>
       </c>
       <c r="AM9">
-        <v>11030</v>
+        <v>9184</v>
       </c>
       <c r="AN9">
-        <v>9186</v>
+        <v>8277</v>
       </c>
       <c r="AO9">
-        <v>8276</v>
+        <v>9265</v>
       </c>
       <c r="AP9">
-        <v>9264</v>
+        <v>7552</v>
       </c>
       <c r="AQ9">
-        <v>7550</v>
+        <v>6234</v>
       </c>
       <c r="AR9">
-        <v>6234</v>
+        <v>5127</v>
       </c>
       <c r="AS9">
-        <v>5127</v>
+        <v>4221</v>
       </c>
       <c r="AT9">
-        <v>4219</v>
+        <v>3188</v>
       </c>
       <c r="AU9">
-        <v>3188</v>
+        <v>3256</v>
       </c>
       <c r="AV9">
-        <v>3256</v>
+        <v>3521</v>
       </c>
       <c r="AW9">
-        <v>3520</v>
+        <v>3428</v>
       </c>
       <c r="AX9">
-        <v>3427</v>
+        <v>4126</v>
       </c>
       <c r="AY9">
-        <v>4121</v>
+        <v>5308</v>
       </c>
       <c r="AZ9">
-        <v>5295</v>
+        <v>6581</v>
       </c>
       <c r="BA9">
-        <v>6486</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
@@ -2546,160 +2540,160 @@
         <v>61</v>
       </c>
       <c r="B10">
-        <v>3668</v>
+        <v>2608</v>
       </c>
       <c r="C10">
-        <v>2608</v>
+        <v>1567</v>
       </c>
       <c r="D10">
-        <v>1567</v>
+        <v>1060</v>
       </c>
       <c r="E10">
-        <v>1060</v>
+        <v>599</v>
       </c>
       <c r="F10">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="G10">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="H10">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="I10">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="J10">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="K10">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L10">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="M10">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="N10">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="O10">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="P10">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="Q10">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="R10">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="S10">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="T10">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="U10">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="V10">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="W10">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="X10">
-        <v>393</v>
+        <v>556</v>
       </c>
       <c r="Y10">
-        <v>556</v>
+        <v>762</v>
       </c>
       <c r="Z10">
-        <v>762</v>
+        <v>865</v>
       </c>
       <c r="AA10">
-        <v>865</v>
+        <v>1109</v>
       </c>
       <c r="AB10">
-        <v>1109</v>
+        <v>1870</v>
       </c>
       <c r="AC10">
-        <v>1871</v>
+        <v>2998</v>
       </c>
       <c r="AD10">
-        <v>2999</v>
+        <v>5757</v>
       </c>
       <c r="AE10">
-        <v>5757</v>
+        <v>8971</v>
       </c>
       <c r="AF10">
-        <v>8969</v>
+        <v>10169</v>
       </c>
       <c r="AG10">
-        <v>10165</v>
+        <v>10304</v>
       </c>
       <c r="AH10">
-        <v>10301</v>
+        <v>10242</v>
       </c>
       <c r="AI10">
-        <v>10243</v>
+        <v>9881</v>
       </c>
       <c r="AJ10">
-        <v>9879</v>
+        <v>10364</v>
       </c>
       <c r="AK10">
-        <v>10363</v>
+        <v>13057</v>
       </c>
       <c r="AL10">
-        <v>13059</v>
+        <v>15016</v>
       </c>
       <c r="AM10">
-        <v>15015</v>
+        <v>12379</v>
       </c>
       <c r="AN10">
-        <v>12378</v>
+        <v>11088</v>
       </c>
       <c r="AO10">
-        <v>11087</v>
+        <v>12330</v>
       </c>
       <c r="AP10">
-        <v>12330</v>
+        <v>10040</v>
       </c>
       <c r="AQ10">
-        <v>10036</v>
+        <v>8343</v>
       </c>
       <c r="AR10">
-        <v>8345</v>
+        <v>7025</v>
       </c>
       <c r="AS10">
-        <v>7028</v>
+        <v>5813</v>
       </c>
       <c r="AT10">
-        <v>5813</v>
+        <v>4510</v>
       </c>
       <c r="AU10">
-        <v>4508</v>
+        <v>4606</v>
       </c>
       <c r="AV10">
-        <v>4603</v>
+        <v>4850</v>
       </c>
       <c r="AW10">
-        <v>4847</v>
+        <v>4643</v>
       </c>
       <c r="AX10">
-        <v>4640</v>
+        <v>5712</v>
       </c>
       <c r="AY10">
-        <v>5712</v>
+        <v>7277</v>
       </c>
       <c r="AZ10">
-        <v>7256</v>
+        <v>9091</v>
       </c>
       <c r="BA10">
-        <v>8930</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
@@ -2707,160 +2701,160 @@
         <v>62</v>
       </c>
       <c r="B11">
-        <v>3697</v>
+        <v>2613</v>
       </c>
       <c r="C11">
-        <v>2613</v>
+        <v>1559</v>
       </c>
       <c r="D11">
-        <v>1560</v>
+        <v>993</v>
       </c>
       <c r="E11">
-        <v>992</v>
+        <v>605</v>
       </c>
       <c r="F11">
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="G11">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="H11">
-        <v>375</v>
+        <v>251</v>
       </c>
       <c r="I11">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J11">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L11">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="M11">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="N11">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="O11">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P11">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="Q11">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="R11">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="S11">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="T11">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="U11">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="V11">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="W11">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="X11">
-        <v>552</v>
+        <v>670</v>
       </c>
       <c r="Y11">
-        <v>670</v>
+        <v>897</v>
       </c>
       <c r="Z11">
-        <v>897</v>
+        <v>995</v>
       </c>
       <c r="AA11">
-        <v>995</v>
+        <v>1206</v>
       </c>
       <c r="AB11">
-        <v>1206</v>
+        <v>2270</v>
       </c>
       <c r="AC11">
-        <v>2269</v>
+        <v>3577</v>
       </c>
       <c r="AD11">
-        <v>3577</v>
+        <v>6419</v>
       </c>
       <c r="AE11">
-        <v>6418</v>
+        <v>9775</v>
       </c>
       <c r="AF11">
-        <v>9776</v>
+        <v>10962</v>
       </c>
       <c r="AG11">
-        <v>10963</v>
+        <v>11009</v>
       </c>
       <c r="AH11">
-        <v>11012</v>
+        <v>10838</v>
       </c>
       <c r="AI11">
-        <v>10838</v>
+        <v>10345</v>
       </c>
       <c r="AJ11">
-        <v>10345</v>
+        <v>10562</v>
       </c>
       <c r="AK11">
-        <v>10561</v>
+        <v>13262</v>
       </c>
       <c r="AL11">
-        <v>13259</v>
+        <v>14927</v>
       </c>
       <c r="AM11">
-        <v>14926</v>
+        <v>11991</v>
       </c>
       <c r="AN11">
-        <v>11994</v>
+        <v>10527</v>
       </c>
       <c r="AO11">
-        <v>10525</v>
+        <v>12087</v>
       </c>
       <c r="AP11">
-        <v>12084</v>
+        <v>9800</v>
       </c>
       <c r="AQ11">
-        <v>9795</v>
+        <v>8186</v>
       </c>
       <c r="AR11">
-        <v>8188</v>
+        <v>6685</v>
       </c>
       <c r="AS11">
-        <v>6686</v>
+        <v>5307</v>
       </c>
       <c r="AT11">
-        <v>5304</v>
+        <v>4312</v>
       </c>
       <c r="AU11">
-        <v>4311</v>
+        <v>4516</v>
       </c>
       <c r="AV11">
-        <v>4513</v>
+        <v>4749</v>
       </c>
       <c r="AW11">
-        <v>4746</v>
+        <v>4952</v>
       </c>
       <c r="AX11">
-        <v>4948</v>
+        <v>5909</v>
       </c>
       <c r="AY11">
-        <v>5903</v>
+        <v>7528</v>
       </c>
       <c r="AZ11">
-        <v>7513</v>
+        <v>9367</v>
       </c>
       <c r="BA11">
-        <v>9223</v>
+        <v>8998</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
@@ -2868,160 +2862,160 @@
         <v>63</v>
       </c>
       <c r="B12">
-        <v>2718</v>
+        <v>1917</v>
       </c>
       <c r="C12">
-        <v>1917</v>
+        <v>1174</v>
       </c>
       <c r="D12">
-        <v>1174</v>
+        <v>789</v>
       </c>
       <c r="E12">
-        <v>789</v>
+        <v>469</v>
       </c>
       <c r="F12">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G12">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="H12">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="I12">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="J12">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="K12">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L12">
-        <v>145</v>
+        <v>375</v>
       </c>
       <c r="M12">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="N12">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="O12">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="P12">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="Q12">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="R12">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="S12">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="T12">
-        <v>456</v>
+        <v>575</v>
       </c>
       <c r="U12">
-        <v>575</v>
+        <v>695</v>
       </c>
       <c r="V12">
-        <v>695</v>
+        <v>602</v>
       </c>
       <c r="W12">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="X12">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="Y12">
-        <v>693</v>
+        <v>875</v>
       </c>
       <c r="Z12">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="AA12">
-        <v>897</v>
+        <v>1200</v>
       </c>
       <c r="AB12">
-        <v>1199</v>
+        <v>2038</v>
       </c>
       <c r="AC12">
-        <v>2038</v>
+        <v>3128</v>
       </c>
       <c r="AD12">
-        <v>3128</v>
+        <v>5812</v>
       </c>
       <c r="AE12">
-        <v>5811</v>
+        <v>8384</v>
       </c>
       <c r="AF12">
-        <v>8388</v>
+        <v>9479</v>
       </c>
       <c r="AG12">
-        <v>9477</v>
+        <v>9296</v>
       </c>
       <c r="AH12">
-        <v>9296</v>
+        <v>9682</v>
       </c>
       <c r="AI12">
-        <v>9682</v>
+        <v>9061</v>
       </c>
       <c r="AJ12">
-        <v>9060</v>
+        <v>9243</v>
       </c>
       <c r="AK12">
-        <v>9241</v>
+        <v>11104</v>
       </c>
       <c r="AL12">
-        <v>11104</v>
+        <v>12444</v>
       </c>
       <c r="AM12">
-        <v>12441</v>
+        <v>9730</v>
       </c>
       <c r="AN12">
-        <v>9731</v>
+        <v>8564</v>
       </c>
       <c r="AO12">
-        <v>8562</v>
+        <v>9790</v>
       </c>
       <c r="AP12">
-        <v>9789</v>
+        <v>7966</v>
       </c>
       <c r="AQ12">
-        <v>7965</v>
+        <v>6470</v>
       </c>
       <c r="AR12">
-        <v>6468</v>
+        <v>5305</v>
       </c>
       <c r="AS12">
-        <v>5307</v>
+        <v>4490</v>
       </c>
       <c r="AT12">
-        <v>4489</v>
+        <v>3558</v>
       </c>
       <c r="AU12">
-        <v>3558</v>
+        <v>3776</v>
       </c>
       <c r="AV12">
-        <v>3777</v>
+        <v>4059</v>
       </c>
       <c r="AW12">
-        <v>4057</v>
+        <v>4297</v>
       </c>
       <c r="AX12">
-        <v>4296</v>
+        <v>5204</v>
       </c>
       <c r="AY12">
-        <v>5197</v>
+        <v>6522</v>
       </c>
       <c r="AZ12">
-        <v>6503</v>
+        <v>8194</v>
       </c>
       <c r="BA12">
-        <v>8072</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
@@ -3029,160 +3023,160 @@
         <v>64</v>
       </c>
       <c r="B13">
-        <v>2307</v>
+        <v>1679</v>
       </c>
       <c r="C13">
-        <v>1677</v>
+        <v>1024</v>
       </c>
       <c r="D13">
-        <v>1026</v>
+        <v>698</v>
       </c>
       <c r="E13">
-        <v>698</v>
+        <v>456</v>
       </c>
       <c r="F13">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="G13">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="H13">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="I13">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="J13">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="K13">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L13">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="M13">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="N13">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="O13">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="P13">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="Q13">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="R13">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="S13">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="T13">
-        <v>489</v>
+        <v>639</v>
       </c>
       <c r="U13">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="V13">
-        <v>715</v>
+        <v>660</v>
       </c>
       <c r="W13">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="X13">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="Y13">
-        <v>687</v>
+        <v>844</v>
       </c>
       <c r="Z13">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="AA13">
-        <v>861</v>
+        <v>1051</v>
       </c>
       <c r="AB13">
-        <v>1051</v>
+        <v>1869</v>
       </c>
       <c r="AC13">
-        <v>1867</v>
+        <v>2905</v>
       </c>
       <c r="AD13">
-        <v>2905</v>
+        <v>5301</v>
       </c>
       <c r="AE13">
-        <v>5302</v>
+        <v>7877</v>
       </c>
       <c r="AF13">
-        <v>7876</v>
+        <v>8882</v>
       </c>
       <c r="AG13">
-        <v>8879</v>
+        <v>8990</v>
       </c>
       <c r="AH13">
-        <v>8990</v>
+        <v>9236</v>
       </c>
       <c r="AI13">
-        <v>9235</v>
+        <v>8809</v>
       </c>
       <c r="AJ13">
-        <v>8806</v>
+        <v>8828</v>
       </c>
       <c r="AK13">
-        <v>8827</v>
+        <v>10904</v>
       </c>
       <c r="AL13">
-        <v>10902</v>
+        <v>11995</v>
       </c>
       <c r="AM13">
-        <v>11997</v>
+        <v>9523</v>
       </c>
       <c r="AN13">
-        <v>9523</v>
+        <v>8032</v>
       </c>
       <c r="AO13">
-        <v>8031</v>
+        <v>9530</v>
       </c>
       <c r="AP13">
-        <v>9531</v>
+        <v>7565</v>
       </c>
       <c r="AQ13">
-        <v>7563</v>
+        <v>6231</v>
       </c>
       <c r="AR13">
-        <v>6231</v>
+        <v>5121</v>
       </c>
       <c r="AS13">
-        <v>5124</v>
+        <v>4293</v>
       </c>
       <c r="AT13">
-        <v>4290</v>
+        <v>3473</v>
       </c>
       <c r="AU13">
-        <v>3473</v>
+        <v>3591</v>
       </c>
       <c r="AV13">
-        <v>3589</v>
+        <v>4147</v>
       </c>
       <c r="AW13">
-        <v>4146</v>
+        <v>4281</v>
       </c>
       <c r="AX13">
-        <v>4278</v>
+        <v>5351</v>
       </c>
       <c r="AY13">
-        <v>5345</v>
+        <v>6999</v>
       </c>
       <c r="AZ13">
-        <v>6979</v>
+        <v>9129</v>
       </c>
       <c r="BA13">
-        <v>8977</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
@@ -3190,160 +3184,160 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>2205</v>
+        <v>1651</v>
       </c>
       <c r="C14">
-        <v>1651</v>
+        <v>981</v>
       </c>
       <c r="D14">
-        <v>982</v>
+        <v>765</v>
       </c>
       <c r="E14">
-        <v>764</v>
+        <v>463</v>
       </c>
       <c r="F14">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="G14">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="H14">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="I14">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="J14">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="K14">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="M14">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="N14">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="O14">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="P14">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="Q14">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="R14">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="S14">
-        <v>383</v>
+        <v>515</v>
       </c>
       <c r="T14">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="U14">
-        <v>644</v>
+        <v>759</v>
       </c>
       <c r="V14">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="W14">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="X14">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="Y14">
-        <v>701</v>
+        <v>902</v>
       </c>
       <c r="Z14">
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="AA14">
-        <v>1007</v>
+        <v>1153</v>
       </c>
       <c r="AB14">
-        <v>1153</v>
+        <v>1826</v>
       </c>
       <c r="AC14">
-        <v>1826</v>
+        <v>3105</v>
       </c>
       <c r="AD14">
-        <v>3107</v>
+        <v>5397</v>
       </c>
       <c r="AE14">
-        <v>5396</v>
+        <v>8083</v>
       </c>
       <c r="AF14">
-        <v>8085</v>
+        <v>8958</v>
       </c>
       <c r="AG14">
-        <v>8960</v>
+        <v>9193</v>
       </c>
       <c r="AH14">
-        <v>9190</v>
+        <v>9207</v>
       </c>
       <c r="AI14">
-        <v>9208</v>
+        <v>8712</v>
       </c>
       <c r="AJ14">
-        <v>8711</v>
+        <v>9136</v>
       </c>
       <c r="AK14">
-        <v>9138</v>
+        <v>11003</v>
       </c>
       <c r="AL14">
-        <v>11003</v>
+        <v>12229</v>
       </c>
       <c r="AM14">
-        <v>12230</v>
+        <v>9527</v>
       </c>
       <c r="AN14">
-        <v>9527</v>
+        <v>8094</v>
       </c>
       <c r="AO14">
-        <v>8092</v>
+        <v>10135</v>
       </c>
       <c r="AP14">
-        <v>10134</v>
+        <v>8017</v>
       </c>
       <c r="AQ14">
-        <v>8015</v>
+        <v>6339</v>
       </c>
       <c r="AR14">
-        <v>6338</v>
+        <v>5208</v>
       </c>
       <c r="AS14">
-        <v>5209</v>
+        <v>4473</v>
       </c>
       <c r="AT14">
-        <v>4471</v>
+        <v>3603</v>
       </c>
       <c r="AU14">
-        <v>3606</v>
+        <v>3734</v>
       </c>
       <c r="AV14">
-        <v>3732</v>
+        <v>4187</v>
       </c>
       <c r="AW14">
-        <v>4186</v>
+        <v>4589</v>
       </c>
       <c r="AX14">
-        <v>4588</v>
+        <v>5767</v>
       </c>
       <c r="AY14">
-        <v>5767</v>
+        <v>7635</v>
       </c>
       <c r="AZ14">
-        <v>7616</v>
+        <v>9477</v>
       </c>
       <c r="BA14">
-        <v>9342</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
@@ -3351,160 +3345,160 @@
         <v>66</v>
       </c>
       <c r="B15">
-        <v>2420</v>
+        <v>1751</v>
       </c>
       <c r="C15">
-        <v>1751</v>
+        <v>1205</v>
       </c>
       <c r="D15">
-        <v>1204</v>
+        <v>909</v>
       </c>
       <c r="E15">
-        <v>909</v>
+        <v>562</v>
       </c>
       <c r="F15">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="G15">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="H15">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="I15">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="J15">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="K15">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="L15">
-        <v>224</v>
+        <v>412</v>
       </c>
       <c r="M15">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="N15">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="O15">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P15">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="Q15">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="R15">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="S15">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="T15">
-        <v>514</v>
+        <v>700</v>
       </c>
       <c r="U15">
-        <v>700</v>
+        <v>945</v>
       </c>
       <c r="V15">
-        <v>945</v>
+        <v>858</v>
       </c>
       <c r="W15">
-        <v>856</v>
+        <v>939</v>
       </c>
       <c r="X15">
         <v>939</v>
       </c>
       <c r="Y15">
-        <v>940</v>
+        <v>1207</v>
       </c>
       <c r="Z15">
-        <v>1207</v>
+        <v>1300</v>
       </c>
       <c r="AA15">
-        <v>1301</v>
+        <v>1524</v>
       </c>
       <c r="AB15">
-        <v>1524</v>
+        <v>2359</v>
       </c>
       <c r="AC15">
-        <v>2361</v>
+        <v>3858</v>
       </c>
       <c r="AD15">
-        <v>3858</v>
+        <v>6715</v>
       </c>
       <c r="AE15">
-        <v>6714</v>
+        <v>9576</v>
       </c>
       <c r="AF15">
-        <v>9577</v>
+        <v>10491</v>
       </c>
       <c r="AG15">
-        <v>10491</v>
+        <v>10485</v>
       </c>
       <c r="AH15">
-        <v>10483</v>
+        <v>10088</v>
       </c>
       <c r="AI15">
-        <v>10088</v>
+        <v>9378</v>
       </c>
       <c r="AJ15">
-        <v>9380</v>
+        <v>9485</v>
       </c>
       <c r="AK15">
-        <v>9485</v>
+        <v>11532</v>
       </c>
       <c r="AL15">
-        <v>11531</v>
+        <v>13019</v>
       </c>
       <c r="AM15">
-        <v>13017</v>
+        <v>10044</v>
       </c>
       <c r="AN15">
-        <v>10046</v>
+        <v>9198</v>
       </c>
       <c r="AO15">
-        <v>9195</v>
+        <v>11598</v>
       </c>
       <c r="AP15">
-        <v>11599</v>
+        <v>9057</v>
       </c>
       <c r="AQ15">
-        <v>9053</v>
+        <v>7027</v>
       </c>
       <c r="AR15">
-        <v>7029</v>
+        <v>5781</v>
       </c>
       <c r="AS15">
-        <v>5779</v>
+        <v>4920</v>
       </c>
       <c r="AT15">
-        <v>4918</v>
+        <v>3904</v>
       </c>
       <c r="AU15">
-        <v>3901</v>
+        <v>4110</v>
       </c>
       <c r="AV15">
-        <v>4112</v>
+        <v>4551</v>
       </c>
       <c r="AW15">
-        <v>4546</v>
+        <v>4909</v>
       </c>
       <c r="AX15">
-        <v>4907</v>
+        <v>6031</v>
       </c>
       <c r="AY15">
-        <v>6031</v>
+        <v>7891</v>
       </c>
       <c r="AZ15">
-        <v>7888</v>
+        <v>9892</v>
       </c>
       <c r="BA15">
-        <v>9750</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
@@ -3512,160 +3506,160 @@
         <v>67</v>
       </c>
       <c r="B16">
-        <v>2487</v>
+        <v>1934</v>
       </c>
       <c r="C16">
-        <v>1933</v>
+        <v>1295</v>
       </c>
       <c r="D16">
-        <v>1296</v>
+        <v>996</v>
       </c>
       <c r="E16">
-        <v>996</v>
+        <v>681</v>
       </c>
       <c r="F16">
-        <v>681</v>
+        <v>522</v>
       </c>
       <c r="G16">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="H16">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="I16">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="J16">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="K16">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L16">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="M16">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="N16">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="O16">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="P16">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="Q16">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="R16">
-        <v>409</v>
+        <v>510</v>
       </c>
       <c r="S16">
-        <v>510</v>
+        <v>607</v>
       </c>
       <c r="T16">
-        <v>607</v>
+        <v>838</v>
       </c>
       <c r="U16">
-        <v>838</v>
+        <v>1195</v>
       </c>
       <c r="V16">
-        <v>1195</v>
+        <v>1221</v>
       </c>
       <c r="W16">
-        <v>1221</v>
+        <v>1158</v>
       </c>
       <c r="X16">
-        <v>1158</v>
+        <v>1230</v>
       </c>
       <c r="Y16">
-        <v>1230</v>
+        <v>1483</v>
       </c>
       <c r="Z16">
-        <v>1483</v>
+        <v>1439</v>
       </c>
       <c r="AA16">
-        <v>1439</v>
+        <v>1746</v>
       </c>
       <c r="AB16">
-        <v>1746</v>
+        <v>2687</v>
       </c>
       <c r="AC16">
-        <v>2688</v>
+        <v>4481</v>
       </c>
       <c r="AD16">
-        <v>4481</v>
+        <v>7316</v>
       </c>
       <c r="AE16">
-        <v>7313</v>
+        <v>10337</v>
       </c>
       <c r="AF16">
-        <v>10337</v>
+        <v>11154</v>
       </c>
       <c r="AG16">
-        <v>11153</v>
+        <v>10699</v>
       </c>
       <c r="AH16">
-        <v>10700</v>
+        <v>9935</v>
       </c>
       <c r="AI16">
-        <v>9936</v>
+        <v>9007</v>
       </c>
       <c r="AJ16">
-        <v>9007</v>
+        <v>9149</v>
       </c>
       <c r="AK16">
-        <v>9147</v>
+        <v>10801</v>
       </c>
       <c r="AL16">
+        <v>12115</v>
+      </c>
+      <c r="AM16">
+        <v>9437</v>
+      </c>
+      <c r="AN16">
+        <v>8423</v>
+      </c>
+      <c r="AO16">
         <v>10803</v>
       </c>
-      <c r="AM16">
-        <v>12115</v>
-      </c>
-      <c r="AN16">
-        <v>9437</v>
-      </c>
-      <c r="AO16">
-        <v>8421</v>
-      </c>
       <c r="AP16">
-        <v>10799</v>
+        <v>8539</v>
       </c>
       <c r="AQ16">
-        <v>8537</v>
+        <v>6401</v>
       </c>
       <c r="AR16">
-        <v>6401</v>
+        <v>5352</v>
       </c>
       <c r="AS16">
-        <v>5349</v>
+        <v>4488</v>
       </c>
       <c r="AT16">
-        <v>4485</v>
+        <v>3660</v>
       </c>
       <c r="AU16">
-        <v>3662</v>
+        <v>3904</v>
       </c>
       <c r="AV16">
-        <v>3900</v>
+        <v>4157</v>
       </c>
       <c r="AW16">
-        <v>4158</v>
+        <v>4276</v>
       </c>
       <c r="AX16">
-        <v>4277</v>
+        <v>5475</v>
       </c>
       <c r="AY16">
-        <v>5472</v>
+        <v>7026</v>
       </c>
       <c r="AZ16">
-        <v>7007</v>
+        <v>8451</v>
       </c>
       <c r="BA16">
-        <v>8294</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
@@ -3673,160 +3667,160 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>2245</v>
+        <v>1737</v>
       </c>
       <c r="C17">
-        <v>1735</v>
+        <v>1231</v>
       </c>
       <c r="D17">
-        <v>1232</v>
+        <v>962</v>
       </c>
       <c r="E17">
-        <v>961</v>
+        <v>595</v>
       </c>
       <c r="F17">
-        <v>595</v>
+        <v>507</v>
       </c>
       <c r="G17">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="H17">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="I17">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J17">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="K17">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="L17">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="M17">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="N17">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O17">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="P17">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="Q17">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="R17">
-        <v>378</v>
+        <v>521</v>
       </c>
       <c r="S17">
-        <v>521</v>
+        <v>745</v>
       </c>
       <c r="T17">
-        <v>745</v>
+        <v>1165</v>
       </c>
       <c r="U17">
-        <v>1165</v>
+        <v>1544</v>
       </c>
       <c r="V17">
-        <v>1544</v>
+        <v>1328</v>
       </c>
       <c r="W17">
-        <v>1328</v>
+        <v>1251</v>
       </c>
       <c r="X17">
-        <v>1250</v>
+        <v>1285</v>
       </c>
       <c r="Y17">
-        <v>1286</v>
+        <v>1518</v>
       </c>
       <c r="Z17">
-        <v>1517</v>
+        <v>1584</v>
       </c>
       <c r="AA17">
-        <v>1583</v>
+        <v>1742</v>
       </c>
       <c r="AB17">
-        <v>1742</v>
+        <v>2788</v>
       </c>
       <c r="AC17">
-        <v>2788</v>
+        <v>4384</v>
       </c>
       <c r="AD17">
-        <v>4384</v>
+        <v>7554</v>
       </c>
       <c r="AE17">
-        <v>7551</v>
+        <v>10424</v>
       </c>
       <c r="AF17">
-        <v>10422</v>
+        <v>11739</v>
       </c>
       <c r="AG17">
-        <v>11741</v>
+        <v>11035</v>
       </c>
       <c r="AH17">
-        <v>11035</v>
+        <v>10218</v>
       </c>
       <c r="AI17">
-        <v>10219</v>
+        <v>8945</v>
       </c>
       <c r="AJ17">
-        <v>8944</v>
+        <v>9194</v>
       </c>
       <c r="AK17">
-        <v>9194</v>
+        <v>10794</v>
       </c>
       <c r="AL17">
-        <v>10795</v>
+        <v>12108</v>
       </c>
       <c r="AM17">
-        <v>12107</v>
+        <v>9076</v>
       </c>
       <c r="AN17">
-        <v>9076</v>
+        <v>8601</v>
       </c>
       <c r="AO17">
-        <v>8601</v>
+        <v>10890</v>
       </c>
       <c r="AP17">
-        <v>10886</v>
+        <v>8517</v>
       </c>
       <c r="AQ17">
-        <v>8515</v>
+        <v>6444</v>
       </c>
       <c r="AR17">
-        <v>6439</v>
+        <v>5243</v>
       </c>
       <c r="AS17">
-        <v>5241</v>
+        <v>4385</v>
       </c>
       <c r="AT17">
-        <v>4384</v>
+        <v>3657</v>
       </c>
       <c r="AU17">
-        <v>3655</v>
+        <v>3966</v>
       </c>
       <c r="AV17">
-        <v>3965</v>
+        <v>4204</v>
       </c>
       <c r="AW17">
-        <v>4201</v>
+        <v>4406</v>
       </c>
       <c r="AX17">
-        <v>4402</v>
+        <v>5448</v>
       </c>
       <c r="AY17">
-        <v>5444</v>
+        <v>6915</v>
       </c>
       <c r="AZ17">
-        <v>6900</v>
+        <v>8599</v>
       </c>
       <c r="BA17">
-        <v>8437</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
@@ -3834,482 +3828,482 @@
         <v>69</v>
       </c>
       <c r="B18">
-        <v>1077</v>
+        <v>855</v>
       </c>
       <c r="C18">
-        <v>855</v>
+        <v>571</v>
       </c>
       <c r="D18">
-        <v>571</v>
+        <v>403</v>
       </c>
       <c r="E18">
-        <v>402</v>
+        <v>263</v>
       </c>
       <c r="F18">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G18">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="H18">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="I18">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J18">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="M18">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="N18">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O18">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P18">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="Q18">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="R18">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="S18">
-        <v>363</v>
+        <v>542</v>
       </c>
       <c r="T18">
-        <v>542</v>
+        <v>742</v>
       </c>
       <c r="U18">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="V18">
-        <v>880</v>
+        <v>834</v>
       </c>
       <c r="W18">
-        <v>834</v>
+        <v>770</v>
       </c>
       <c r="X18">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="Y18">
-        <v>831</v>
+        <v>1040</v>
       </c>
       <c r="Z18">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="AA18">
-        <v>1045</v>
+        <v>1329</v>
       </c>
       <c r="AB18">
-        <v>1329</v>
+        <v>2067</v>
       </c>
       <c r="AC18">
-        <v>2067</v>
+        <v>2961</v>
       </c>
       <c r="AD18">
-        <v>2961</v>
+        <v>4859</v>
       </c>
       <c r="AE18">
-        <v>4859</v>
+        <v>7194</v>
       </c>
       <c r="AF18">
-        <v>7193</v>
+        <v>8410</v>
       </c>
       <c r="AG18">
-        <v>8409</v>
+        <v>8707</v>
       </c>
       <c r="AH18">
-        <v>8708</v>
+        <v>8205</v>
       </c>
       <c r="AI18">
-        <v>8204</v>
+        <v>7458</v>
       </c>
       <c r="AJ18">
-        <v>7459</v>
+        <v>7727</v>
       </c>
       <c r="AK18">
-        <v>7726</v>
+        <v>8836</v>
       </c>
       <c r="AL18">
-        <v>8837</v>
+        <v>8470</v>
       </c>
       <c r="AM18">
-        <v>8470</v>
+        <v>5877</v>
       </c>
       <c r="AN18">
-        <v>5874</v>
+        <v>4955</v>
       </c>
       <c r="AO18">
-        <v>4953</v>
+        <v>6381</v>
       </c>
       <c r="AP18">
-        <v>6380</v>
+        <v>5407</v>
       </c>
       <c r="AQ18">
-        <v>5409</v>
+        <v>4207</v>
       </c>
       <c r="AR18">
-        <v>4205</v>
+        <v>3475</v>
       </c>
       <c r="AS18">
-        <v>3474</v>
+        <v>2925</v>
       </c>
       <c r="AT18">
-        <v>2924</v>
+        <v>2379</v>
       </c>
       <c r="AU18">
-        <v>2379</v>
+        <v>2624</v>
       </c>
       <c r="AV18">
-        <v>2624</v>
+        <v>3076</v>
       </c>
       <c r="AW18">
-        <v>3076</v>
+        <v>3223</v>
       </c>
       <c r="AX18">
-        <v>3224</v>
+        <v>4109</v>
       </c>
       <c r="AY18">
-        <v>4103</v>
+        <v>5554</v>
       </c>
       <c r="AZ18">
-        <v>5535</v>
+        <v>7187</v>
       </c>
       <c r="BA18">
-        <v>7061</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
+      <c r="A19" s="1">
+        <v>41913</v>
       </c>
       <c r="B19">
+        <v>306</v>
+      </c>
+      <c r="C19">
+        <v>236</v>
+      </c>
+      <c r="D19">
+        <v>188</v>
+      </c>
+      <c r="E19">
+        <v>136</v>
+      </c>
+      <c r="F19">
+        <v>125</v>
+      </c>
+      <c r="G19">
+        <v>118</v>
+      </c>
+      <c r="H19">
+        <v>107</v>
+      </c>
+      <c r="I19">
+        <v>119</v>
+      </c>
+      <c r="J19">
+        <v>103</v>
+      </c>
+      <c r="K19">
+        <v>119</v>
+      </c>
+      <c r="L19">
+        <v>192</v>
+      </c>
+      <c r="M19">
+        <v>146</v>
+      </c>
+      <c r="N19">
+        <v>105</v>
+      </c>
+      <c r="O19">
+        <v>103</v>
+      </c>
+      <c r="P19">
+        <v>148</v>
+      </c>
+      <c r="Q19">
+        <v>191</v>
+      </c>
+      <c r="R19">
+        <v>251</v>
+      </c>
+      <c r="S19">
+        <v>364</v>
+      </c>
+      <c r="T19">
+        <v>544</v>
+      </c>
+      <c r="U19">
+        <v>577</v>
+      </c>
+      <c r="V19">
+        <v>483</v>
+      </c>
+      <c r="W19">
         <v>430</v>
       </c>
-      <c r="C19">
-        <v>306</v>
-      </c>
-      <c r="D19">
-        <v>236</v>
-      </c>
-      <c r="E19">
-        <v>188</v>
-      </c>
-      <c r="F19">
-        <v>136</v>
-      </c>
-      <c r="G19">
-        <v>125</v>
-      </c>
-      <c r="H19">
-        <v>117</v>
-      </c>
-      <c r="I19">
-        <v>108</v>
-      </c>
-      <c r="J19">
-        <v>119</v>
-      </c>
-      <c r="K19">
-        <v>103</v>
-      </c>
-      <c r="L19">
-        <v>119</v>
-      </c>
-      <c r="M19">
-        <v>192</v>
-      </c>
-      <c r="N19">
-        <v>146</v>
-      </c>
-      <c r="O19">
-        <v>105</v>
-      </c>
-      <c r="P19">
-        <v>102</v>
-      </c>
-      <c r="Q19">
-        <v>148</v>
-      </c>
-      <c r="R19">
-        <v>191</v>
-      </c>
-      <c r="S19">
-        <v>251</v>
-      </c>
-      <c r="T19">
-        <v>364</v>
-      </c>
-      <c r="U19">
-        <v>543</v>
-      </c>
-      <c r="V19">
-        <v>577</v>
-      </c>
-      <c r="W19">
-        <v>483</v>
-      </c>
       <c r="X19">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="Y19">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="Z19">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="AA19">
-        <v>585</v>
+        <v>709</v>
       </c>
       <c r="AB19">
-        <v>708</v>
+        <v>1142</v>
       </c>
       <c r="AC19">
-        <v>1141</v>
+        <v>1652</v>
       </c>
       <c r="AD19">
-        <v>1653</v>
+        <v>2739</v>
       </c>
       <c r="AE19">
-        <v>2739</v>
+        <v>4086</v>
       </c>
       <c r="AF19">
-        <v>4084</v>
+        <v>4771</v>
       </c>
       <c r="AG19">
-        <v>4771</v>
+        <v>5335</v>
       </c>
       <c r="AH19">
-        <v>5336</v>
+        <v>5303</v>
       </c>
       <c r="AI19">
-        <v>5303</v>
+        <v>5190</v>
       </c>
       <c r="AJ19">
-        <v>5190</v>
+        <v>5160</v>
       </c>
       <c r="AK19">
-        <v>5159</v>
+        <v>5694</v>
       </c>
       <c r="AL19">
-        <v>5693</v>
+        <v>5287</v>
       </c>
       <c r="AM19">
-        <v>5288</v>
+        <v>3379</v>
       </c>
       <c r="AN19">
-        <v>3377</v>
+        <v>2648</v>
       </c>
       <c r="AO19">
-        <v>2647</v>
+        <v>3326</v>
       </c>
       <c r="AP19">
-        <v>3323</v>
+        <v>2724</v>
       </c>
       <c r="AQ19">
-        <v>2724</v>
+        <v>2221</v>
       </c>
       <c r="AR19">
-        <v>2222</v>
+        <v>1878</v>
       </c>
       <c r="AS19">
-        <v>1879</v>
+        <v>1726</v>
       </c>
       <c r="AT19">
-        <v>1726</v>
+        <v>1412</v>
       </c>
       <c r="AU19">
-        <v>1411</v>
+        <v>1579</v>
       </c>
       <c r="AV19">
-        <v>1579</v>
+        <v>1885</v>
       </c>
       <c r="AW19">
-        <v>1885</v>
+        <v>2312</v>
       </c>
       <c r="AX19">
-        <v>2312</v>
+        <v>2873</v>
       </c>
       <c r="AY19">
-        <v>2872</v>
+        <v>4166</v>
       </c>
       <c r="AZ19">
-        <v>4150</v>
+        <v>5732</v>
       </c>
       <c r="BA19">
-        <v>5627</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
+      <c r="A20" s="2">
+        <v>44444</v>
       </c>
       <c r="B20">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="C20">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="D20">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E20">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G20">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J20">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K20">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="L20">
+        <v>176</v>
+      </c>
+      <c r="M20">
+        <v>138</v>
+      </c>
+      <c r="N20">
         <v>123</v>
       </c>
-      <c r="M20">
-        <v>176</v>
-      </c>
-      <c r="N20">
-        <v>138</v>
-      </c>
       <c r="O20">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P20">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="R20">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="S20">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="T20">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="U20">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="V20">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="W20">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="X20">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Y20">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="Z20">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="AA20">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="AB20">
-        <v>432</v>
+        <v>627</v>
       </c>
       <c r="AC20">
-        <v>625</v>
+        <v>973</v>
       </c>
       <c r="AD20">
-        <v>970</v>
+        <v>1832</v>
       </c>
       <c r="AE20">
-        <v>1832</v>
+        <v>2792</v>
       </c>
       <c r="AF20">
-        <v>2792</v>
+        <v>3363</v>
       </c>
       <c r="AG20">
-        <v>3361</v>
+        <v>3614</v>
       </c>
       <c r="AH20">
-        <v>3616</v>
+        <v>3918</v>
       </c>
       <c r="AI20">
-        <v>3917</v>
+        <v>3815</v>
       </c>
       <c r="AJ20">
-        <v>3815</v>
+        <v>3682</v>
       </c>
       <c r="AK20">
-        <v>3681</v>
+        <v>4268</v>
       </c>
       <c r="AL20">
-        <v>4269</v>
+        <v>4311</v>
       </c>
       <c r="AM20">
-        <v>4311</v>
+        <v>3026</v>
       </c>
       <c r="AN20">
-        <v>3027</v>
+        <v>1939</v>
       </c>
       <c r="AO20">
-        <v>1939</v>
+        <v>2394</v>
       </c>
       <c r="AP20">
-        <v>2393</v>
+        <v>2205</v>
       </c>
       <c r="AQ20">
-        <v>2206</v>
+        <v>1901</v>
       </c>
       <c r="AR20">
-        <v>1901</v>
+        <v>1644</v>
       </c>
       <c r="AS20">
-        <v>1643</v>
+        <v>1602</v>
       </c>
       <c r="AT20">
-        <v>1602</v>
+        <v>1390</v>
       </c>
       <c r="AU20">
-        <v>1390</v>
+        <v>1553</v>
       </c>
       <c r="AV20">
-        <v>1553</v>
+        <v>2008</v>
       </c>
       <c r="AW20">
-        <v>2008</v>
+        <v>2732</v>
       </c>
       <c r="AX20">
-        <v>2730</v>
+        <v>3674</v>
       </c>
       <c r="AY20">
-        <v>3675</v>
+        <v>4764</v>
       </c>
       <c r="AZ20">
-        <v>4757</v>
+        <v>6691</v>
       </c>
       <c r="BA20">
-        <v>6595</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
@@ -4317,164 +4311,165 @@
         <v>70</v>
       </c>
       <c r="B21">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C21">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D21">
+        <v>185</v>
+      </c>
+      <c r="E21">
+        <v>132</v>
+      </c>
+      <c r="F21">
+        <v>138</v>
+      </c>
+      <c r="G21">
+        <v>116</v>
+      </c>
+      <c r="H21">
+        <v>124</v>
+      </c>
+      <c r="I21">
+        <v>88</v>
+      </c>
+      <c r="J21">
+        <v>107</v>
+      </c>
+      <c r="K21">
+        <v>110</v>
+      </c>
+      <c r="L21">
+        <v>159</v>
+      </c>
+      <c r="M21">
+        <v>135</v>
+      </c>
+      <c r="N21">
+        <v>141</v>
+      </c>
+      <c r="O21">
+        <v>147</v>
+      </c>
+      <c r="P21">
+        <v>140</v>
+      </c>
+      <c r="Q21">
         <v>161</v>
       </c>
-      <c r="E21">
-        <v>185</v>
-      </c>
-      <c r="F21">
-        <v>132</v>
-      </c>
-      <c r="G21">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>116</v>
-      </c>
-      <c r="I21">
-        <v>124</v>
-      </c>
-      <c r="J21">
-        <v>88</v>
-      </c>
-      <c r="K21">
-        <v>107</v>
-      </c>
-      <c r="L21">
-        <v>110</v>
-      </c>
-      <c r="M21">
-        <v>159</v>
-      </c>
-      <c r="N21">
-        <v>135</v>
-      </c>
-      <c r="O21">
-        <v>141</v>
-      </c>
-      <c r="P21">
-        <v>147</v>
-      </c>
-      <c r="Q21">
-        <v>140</v>
-      </c>
       <c r="R21">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="S21">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="T21">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="U21">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="V21">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="W21">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="X21">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y21">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="Z21">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AA21">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="AB21">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="AC21">
-        <v>524</v>
+        <v>888</v>
       </c>
       <c r="AD21">
-        <v>886</v>
+        <v>1456</v>
       </c>
       <c r="AE21">
-        <v>1456</v>
+        <v>2235</v>
       </c>
       <c r="AF21">
-        <v>2235</v>
+        <v>2415</v>
       </c>
       <c r="AG21">
-        <v>2414</v>
+        <v>2420</v>
       </c>
       <c r="AH21">
-        <v>2421</v>
+        <v>2379</v>
       </c>
       <c r="AI21">
-        <v>2378</v>
+        <v>2327</v>
       </c>
       <c r="AJ21">
-        <v>2327</v>
+        <v>2306</v>
       </c>
       <c r="AK21">
-        <v>2306</v>
+        <v>2668</v>
       </c>
       <c r="AL21">
-        <v>2668</v>
+        <v>3113</v>
       </c>
       <c r="AM21">
-        <v>3113</v>
+        <v>2115</v>
       </c>
       <c r="AN21">
-        <v>2117</v>
+        <v>1531</v>
       </c>
       <c r="AO21">
-        <v>1532</v>
+        <v>1913</v>
       </c>
       <c r="AP21">
-        <v>1913</v>
+        <v>1861</v>
       </c>
       <c r="AQ21">
-        <v>1862</v>
+        <v>1699</v>
       </c>
       <c r="AR21">
-        <v>1701</v>
+        <v>1534</v>
       </c>
       <c r="AS21">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="AT21">
-        <v>1512</v>
+        <v>1347</v>
       </c>
       <c r="AU21">
-        <v>1347</v>
+        <v>1376</v>
       </c>
       <c r="AV21">
-        <v>1376</v>
+        <v>1889</v>
       </c>
       <c r="AW21">
-        <v>1890</v>
+        <v>2384</v>
       </c>
       <c r="AX21">
-        <v>2384</v>
+        <v>2999</v>
       </c>
       <c r="AY21">
-        <v>2995</v>
+        <v>4058</v>
       </c>
       <c r="AZ21">
-        <v>4046</v>
+        <v>5030</v>
       </c>
       <c r="BA21">
-        <v>4961</v>
+        <v>4436</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4482,14 +4477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC23" sqref="BC23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="46" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4657,3222 +4649,3223 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>43.39</v>
+        <v>32.69</v>
       </c>
       <c r="C2">
-        <v>32.68</v>
+        <v>20.87</v>
       </c>
       <c r="D2">
-        <v>20.88</v>
+        <v>14.88</v>
       </c>
       <c r="E2">
-        <v>14.88</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F2">
-        <v>8.9499999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="G2">
-        <v>7.5</v>
+        <v>5.73</v>
       </c>
       <c r="H2">
-        <v>5.72</v>
+        <v>4.34</v>
       </c>
       <c r="I2">
-        <v>4.3499999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="J2">
-        <v>3.85</v>
+        <v>2.83</v>
       </c>
       <c r="K2">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="L2">
-        <v>2.82</v>
+        <v>4.96</v>
       </c>
       <c r="M2">
-        <v>4.96</v>
+        <v>3.86</v>
       </c>
       <c r="N2">
-        <v>3.86</v>
+        <v>3.24</v>
       </c>
       <c r="O2">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="P2">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="Q2">
-        <v>3.63</v>
+        <v>4.72</v>
       </c>
       <c r="R2">
-        <v>4.72</v>
+        <v>5.8</v>
       </c>
       <c r="S2">
-        <v>5.79</v>
+        <v>7.28</v>
       </c>
       <c r="T2">
-        <v>7.28</v>
+        <v>9.56</v>
       </c>
       <c r="U2">
-        <v>9.56</v>
+        <v>11.53</v>
       </c>
       <c r="V2">
-        <v>11.53</v>
+        <v>10.61</v>
       </c>
       <c r="W2">
-        <v>10.61</v>
+        <v>10.36</v>
       </c>
       <c r="X2">
-        <v>10.36</v>
+        <v>11.75</v>
       </c>
       <c r="Y2">
-        <v>11.75</v>
+        <v>14.78</v>
       </c>
       <c r="Z2">
-        <v>14.78</v>
+        <v>15.71</v>
       </c>
       <c r="AA2">
-        <v>15.71</v>
+        <v>19.16</v>
       </c>
       <c r="AB2">
-        <v>19.149999999999999</v>
+        <v>31.42</v>
       </c>
       <c r="AC2">
-        <v>31.41</v>
+        <v>50.61</v>
       </c>
       <c r="AD2">
-        <v>50.61</v>
+        <v>89.98</v>
       </c>
       <c r="AE2">
-        <v>89.97</v>
+        <v>133.59</v>
       </c>
       <c r="AF2">
-        <v>133.58000000000001</v>
+        <v>151.28</v>
       </c>
       <c r="AG2">
-        <v>151.27000000000001</v>
+        <v>153.75</v>
       </c>
       <c r="AH2">
-        <v>153.75</v>
+        <v>154.47</v>
       </c>
       <c r="AI2">
-        <v>154.47999999999999</v>
+        <v>148.25</v>
       </c>
       <c r="AJ2">
-        <v>148.24</v>
+        <v>154.52000000000001</v>
       </c>
       <c r="AK2">
-        <v>154.51</v>
+        <v>188.21</v>
       </c>
       <c r="AL2">
-        <v>188.22</v>
+        <v>210.34</v>
       </c>
       <c r="AM2">
-        <v>210.34</v>
+        <v>167.41</v>
       </c>
       <c r="AN2">
-        <v>167.43</v>
+        <v>148.13999999999999</v>
       </c>
       <c r="AO2">
-        <v>148.12</v>
+        <v>174.94</v>
       </c>
       <c r="AP2">
-        <v>174.93</v>
+        <v>143.1</v>
       </c>
       <c r="AQ2">
-        <v>143.07</v>
+        <v>114.93</v>
       </c>
       <c r="AR2">
-        <v>114.93</v>
+        <v>94.08</v>
       </c>
       <c r="AS2">
-        <v>94.09</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="AT2">
-        <v>77.73</v>
+        <v>61.17</v>
       </c>
       <c r="AU2">
-        <v>61.16</v>
+        <v>63.15</v>
       </c>
       <c r="AV2">
-        <v>63.13</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="AW2">
-        <v>67.91</v>
+        <v>70.36</v>
       </c>
       <c r="AX2">
-        <v>70.33</v>
+        <v>85.92</v>
       </c>
       <c r="AY2">
-        <v>85.87</v>
+        <v>111.56</v>
       </c>
       <c r="AZ2">
-        <v>111.31</v>
+        <v>140.24</v>
       </c>
       <c r="BA2">
-        <v>138</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B3">
-        <v>142.28</v>
+        <v>151.02000000000001</v>
       </c>
       <c r="C3">
-        <v>151.02000000000001</v>
+        <v>103.03</v>
       </c>
       <c r="D3">
-        <v>103.03</v>
+        <v>70.59</v>
       </c>
       <c r="E3">
-        <v>70.59</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="F3">
-        <v>34.630000000000003</v>
+        <v>25.27</v>
       </c>
       <c r="G3">
-        <v>25.27</v>
+        <v>17.37</v>
       </c>
       <c r="H3">
-        <v>17.37</v>
+        <v>12.51</v>
       </c>
       <c r="I3">
-        <v>12.51</v>
+        <v>8.75</v>
       </c>
       <c r="J3">
-        <v>8.75</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K3">
-        <v>5.0999999999999996</v>
+        <v>5.59</v>
       </c>
       <c r="L3">
-        <v>5.59</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
+        <v>2.92</v>
+      </c>
+      <c r="O3">
+        <v>1.82</v>
+      </c>
+      <c r="P3">
+        <v>3.28</v>
+      </c>
+      <c r="Q3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="R3">
+        <v>4.74</v>
+      </c>
+      <c r="S3">
         <v>3.4</v>
       </c>
-      <c r="O3">
+      <c r="T3">
+        <v>3.04</v>
+      </c>
+      <c r="U3">
+        <v>2.19</v>
+      </c>
+      <c r="V3">
+        <v>3.52</v>
+      </c>
+      <c r="W3">
         <v>2.92</v>
       </c>
-      <c r="P3">
-        <v>1.82</v>
-      </c>
-      <c r="Q3">
-        <v>3.28</v>
-      </c>
-      <c r="R3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="S3">
-        <v>4.74</v>
-      </c>
-      <c r="T3">
-        <v>3.4</v>
-      </c>
-      <c r="U3">
-        <v>3.04</v>
-      </c>
-      <c r="V3">
-        <v>2.19</v>
-      </c>
-      <c r="W3">
-        <v>3.52</v>
-      </c>
       <c r="X3">
-        <v>2.92</v>
+        <v>5.47</v>
       </c>
       <c r="Y3">
-        <v>5.47</v>
+        <v>8.99</v>
       </c>
       <c r="Z3">
-        <v>8.99</v>
+        <v>11.42</v>
       </c>
       <c r="AA3">
-        <v>11.42</v>
+        <v>14.34</v>
       </c>
       <c r="AB3">
-        <v>14.34</v>
+        <v>22.36</v>
       </c>
       <c r="AC3">
-        <v>22.36</v>
+        <v>53.22</v>
       </c>
       <c r="AD3">
-        <v>53.22</v>
+        <v>107.53</v>
       </c>
       <c r="AE3">
-        <v>107.77</v>
+        <v>178.12</v>
       </c>
       <c r="AF3">
-        <v>178.12</v>
+        <v>209.59</v>
       </c>
       <c r="AG3">
-        <v>209.59</v>
+        <v>281.51</v>
       </c>
       <c r="AH3">
-        <v>281.39</v>
+        <v>373.37</v>
       </c>
       <c r="AI3">
-        <v>373.37</v>
+        <v>426.95</v>
       </c>
       <c r="AJ3">
-        <v>426.95</v>
+        <v>508.6</v>
       </c>
       <c r="AK3">
-        <v>508.72</v>
+        <v>657.44</v>
       </c>
       <c r="AL3">
-        <v>657.44</v>
+        <v>726.57</v>
       </c>
       <c r="AM3">
-        <v>726.57</v>
+        <v>638.6</v>
       </c>
       <c r="AN3">
-        <v>638.97</v>
+        <v>604.70000000000005</v>
       </c>
       <c r="AO3">
-        <v>604.46</v>
+        <v>658.29</v>
       </c>
       <c r="AP3">
-        <v>658.16</v>
+        <v>612.24</v>
       </c>
       <c r="AQ3">
-        <v>611.99</v>
+        <v>479.19</v>
       </c>
       <c r="AR3">
-        <v>479.19</v>
+        <v>350.16</v>
       </c>
       <c r="AS3">
-        <v>350.41</v>
+        <v>235.35</v>
       </c>
       <c r="AT3">
-        <v>235.35</v>
+        <v>158.31</v>
       </c>
       <c r="AU3">
-        <v>158.31</v>
+        <v>130.25</v>
       </c>
       <c r="AV3">
-        <v>130.13</v>
+        <v>101.33</v>
       </c>
       <c r="AW3">
-        <v>101.33</v>
+        <v>74.72</v>
       </c>
       <c r="AX3">
-        <v>74.84</v>
+        <v>74.36</v>
       </c>
       <c r="AY3">
-        <v>74.84</v>
+        <v>78.73</v>
       </c>
       <c r="AZ3">
-        <v>78.849999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="BA3">
-        <v>81.040000000000006</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B4">
-        <v>92.53</v>
+        <v>91.12</v>
       </c>
       <c r="C4">
-        <v>91.12</v>
+        <v>59.15</v>
       </c>
       <c r="D4">
-        <v>59.15</v>
+        <v>43.55</v>
       </c>
       <c r="E4">
-        <v>43.55</v>
+        <v>20.85</v>
       </c>
       <c r="F4">
-        <v>20.91</v>
+        <v>16.82</v>
       </c>
       <c r="G4">
-        <v>16.82</v>
+        <v>11.45</v>
       </c>
       <c r="H4">
-        <v>11.45</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I4">
-        <v>8.1199999999999992</v>
+        <v>5.44</v>
       </c>
       <c r="J4">
-        <v>5.44</v>
+        <v>3.26</v>
       </c>
       <c r="K4">
         <v>3.26</v>
       </c>
       <c r="L4">
-        <v>3.26</v>
+        <v>3.01</v>
       </c>
       <c r="M4">
-        <v>3.01</v>
+        <v>2.11</v>
       </c>
       <c r="N4">
+        <v>1.79</v>
+      </c>
+      <c r="O4">
+        <v>1.28</v>
+      </c>
+      <c r="P4">
+        <v>1.53</v>
+      </c>
+      <c r="Q4">
+        <v>2.17</v>
+      </c>
+      <c r="R4">
+        <v>2.62</v>
+      </c>
+      <c r="S4">
+        <v>2.56</v>
+      </c>
+      <c r="T4">
+        <v>3.58</v>
+      </c>
+      <c r="U4">
+        <v>1.47</v>
+      </c>
+      <c r="V4">
         <v>2.11</v>
       </c>
-      <c r="O4">
-        <v>1.79</v>
-      </c>
-      <c r="P4">
-        <v>1.28</v>
-      </c>
-      <c r="Q4">
-        <v>1.53</v>
-      </c>
-      <c r="R4">
-        <v>2.17</v>
-      </c>
-      <c r="S4">
-        <v>2.62</v>
-      </c>
-      <c r="T4">
-        <v>2.56</v>
-      </c>
-      <c r="U4">
-        <v>3.58</v>
-      </c>
-      <c r="V4">
-        <v>1.47</v>
-      </c>
       <c r="W4">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
-        <v>1.6</v>
+        <v>5.44</v>
       </c>
       <c r="Y4">
-        <v>5.44</v>
+        <v>6.59</v>
       </c>
       <c r="Z4">
-        <v>6.59</v>
+        <v>7.74</v>
       </c>
       <c r="AA4">
-        <v>7.74</v>
+        <v>10.55</v>
       </c>
       <c r="AB4">
-        <v>10.55</v>
+        <v>19.57</v>
       </c>
       <c r="AC4">
-        <v>19.57</v>
+        <v>36.83</v>
       </c>
       <c r="AD4">
-        <v>36.770000000000003</v>
+        <v>73.28</v>
       </c>
       <c r="AE4">
-        <v>73.349999999999994</v>
+        <v>114.21</v>
       </c>
       <c r="AF4">
-        <v>114.14</v>
+        <v>146.44</v>
       </c>
       <c r="AG4">
-        <v>146.44</v>
+        <v>180.9</v>
       </c>
       <c r="AH4">
-        <v>180.97</v>
+        <v>215.63</v>
       </c>
       <c r="AI4">
-        <v>215.63</v>
+        <v>261.92</v>
       </c>
       <c r="AJ4">
-        <v>261.99</v>
+        <v>294.08999999999997</v>
       </c>
       <c r="AK4">
-        <v>294.02999999999997</v>
+        <v>379.01</v>
       </c>
       <c r="AL4">
-        <v>379.14</v>
+        <v>444.24</v>
       </c>
       <c r="AM4">
-        <v>444.24</v>
+        <v>374.79</v>
       </c>
       <c r="AN4">
-        <v>375.17</v>
+        <v>357.52</v>
       </c>
       <c r="AO4">
-        <v>357.52</v>
+        <v>388.79</v>
       </c>
       <c r="AP4">
-        <v>388.79</v>
+        <v>355.16</v>
       </c>
       <c r="AQ4">
-        <v>354.9</v>
+        <v>284.82</v>
       </c>
       <c r="AR4">
-        <v>284.82</v>
+        <v>212.49</v>
       </c>
       <c r="AS4">
-        <v>212.62</v>
+        <v>164.98</v>
       </c>
       <c r="AT4">
-        <v>164.92</v>
+        <v>105.9</v>
       </c>
       <c r="AU4">
-        <v>105.83</v>
+        <v>93.75</v>
       </c>
       <c r="AV4">
-        <v>93.68</v>
+        <v>77.12</v>
       </c>
       <c r="AW4">
-        <v>77.12</v>
+        <v>61.45</v>
       </c>
       <c r="AX4">
-        <v>61.26</v>
+        <v>60.05</v>
       </c>
       <c r="AY4">
-        <v>60.17</v>
+        <v>71.36</v>
       </c>
       <c r="AZ4">
-        <v>71.040000000000006</v>
+        <v>80.83</v>
       </c>
       <c r="BA4">
-        <v>79.099999999999994</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B5">
-        <v>59.68</v>
+        <v>52.06</v>
       </c>
       <c r="C5">
-        <v>52.06</v>
+        <v>35.85</v>
       </c>
       <c r="D5">
-        <v>35.85</v>
+        <v>24.95</v>
       </c>
       <c r="E5">
-        <v>24.95</v>
+        <v>13.72</v>
       </c>
       <c r="F5">
-        <v>13.72</v>
+        <v>9.11</v>
       </c>
       <c r="G5">
-        <v>9.11</v>
+        <v>7.47</v>
       </c>
       <c r="H5">
-        <v>7.47</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="I5">
-        <v>4.6399999999999997</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
-        <v>3.4</v>
+        <v>2.31</v>
       </c>
       <c r="K5">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="L5">
         <v>1.88</v>
       </c>
       <c r="M5">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="N5">
+        <v>1.49</v>
+      </c>
+      <c r="O5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q5">
         <v>1.55</v>
       </c>
-      <c r="O5">
-        <v>1.49</v>
-      </c>
-      <c r="P5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="R5">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="S5">
-        <v>2.73</v>
+        <v>2.09</v>
       </c>
       <c r="T5">
-        <v>2.09</v>
+        <v>2.46</v>
       </c>
       <c r="U5">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="V5">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="W5">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="X5">
-        <v>1.82</v>
+        <v>4.04</v>
       </c>
       <c r="Y5">
-        <v>4.04</v>
+        <v>5.92</v>
       </c>
       <c r="Z5">
-        <v>5.92</v>
+        <v>6.44</v>
       </c>
       <c r="AA5">
-        <v>6.44</v>
+        <v>9.59</v>
       </c>
       <c r="AB5">
-        <v>9.59</v>
+        <v>14.27</v>
       </c>
       <c r="AC5">
-        <v>14.27</v>
+        <v>26.01</v>
       </c>
       <c r="AD5">
-        <v>26.01</v>
+        <v>55.76</v>
       </c>
       <c r="AE5">
-        <v>55.76</v>
+        <v>86.18</v>
       </c>
       <c r="AF5">
-        <v>86.18</v>
+        <v>104.21</v>
       </c>
       <c r="AG5">
-        <v>104.24</v>
+        <v>115.56</v>
       </c>
       <c r="AH5">
-        <v>115.53</v>
+        <v>132.32</v>
       </c>
       <c r="AI5">
-        <v>132.38</v>
+        <v>145.16</v>
       </c>
       <c r="AJ5">
-        <v>145.16</v>
+        <v>165.44</v>
       </c>
       <c r="AK5">
-        <v>165.41</v>
+        <v>215.22</v>
       </c>
       <c r="AL5">
-        <v>215.22</v>
+        <v>251.28</v>
       </c>
       <c r="AM5">
-        <v>251.22</v>
+        <v>225.82</v>
       </c>
       <c r="AN5">
-        <v>225.79</v>
+        <v>208.66</v>
       </c>
       <c r="AO5">
-        <v>208.66</v>
+        <v>232.77</v>
       </c>
       <c r="AP5">
-        <v>232.77</v>
+        <v>203.02</v>
       </c>
       <c r="AQ5">
-        <v>202.99</v>
+        <v>161.72999999999999</v>
       </c>
       <c r="AR5">
-        <v>161.69999999999999</v>
+        <v>127.16</v>
       </c>
       <c r="AS5">
-        <v>127.16</v>
+        <v>95.62</v>
       </c>
       <c r="AT5">
-        <v>95.59</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="AU5">
-        <v>69.819999999999993</v>
+        <v>60.8</v>
       </c>
       <c r="AV5">
-        <v>60.74</v>
+        <v>54.06</v>
       </c>
       <c r="AW5">
-        <v>54.03</v>
+        <v>47.11</v>
       </c>
       <c r="AX5">
-        <v>47.08</v>
+        <v>49.9</v>
       </c>
       <c r="AY5">
-        <v>49.75</v>
+        <v>54.82</v>
       </c>
       <c r="AZ5">
-        <v>54.76</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="BA5">
-        <v>63.93</v>
+        <v>57.49</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B6">
-        <v>46.13</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="C6">
-        <v>33.950000000000003</v>
+        <v>22.03</v>
       </c>
       <c r="D6">
-        <v>22.03</v>
+        <v>15.14</v>
       </c>
       <c r="E6">
-        <v>15.14</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="F6">
-        <v>9.0500000000000007</v>
+        <v>7.07</v>
       </c>
       <c r="G6">
-        <v>7.07</v>
+        <v>4.54</v>
       </c>
       <c r="H6">
-        <v>4.54</v>
+        <v>2.71</v>
       </c>
       <c r="I6">
-        <v>2.71</v>
+        <v>2.12</v>
       </c>
       <c r="J6">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="L6">
-        <v>1.19</v>
+        <v>1.68</v>
       </c>
       <c r="M6">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="N6">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="Q6">
-        <v>1.1399999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="R6">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="S6">
+        <v>1.42</v>
+      </c>
+      <c r="T6">
         <v>1.83</v>
       </c>
-      <c r="T6">
-        <v>1.42</v>
-      </c>
       <c r="U6">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V6">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W6">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="X6">
-        <v>1.93</v>
+        <v>3.79</v>
       </c>
       <c r="Y6">
-        <v>3.79</v>
+        <v>4.67</v>
       </c>
       <c r="Z6">
-        <v>4.67</v>
+        <v>5.98</v>
       </c>
       <c r="AA6">
-        <v>5.98</v>
+        <v>8</v>
       </c>
       <c r="AB6">
-        <v>8</v>
+        <v>12.98</v>
       </c>
       <c r="AC6">
-        <v>12.98</v>
+        <v>23.29</v>
       </c>
       <c r="AD6">
-        <v>23.29</v>
+        <v>41.95</v>
       </c>
       <c r="AE6">
-        <v>41.95</v>
+        <v>68.39</v>
       </c>
       <c r="AF6">
-        <v>68.39</v>
+        <v>78.73</v>
       </c>
       <c r="AG6">
-        <v>78.760000000000005</v>
+        <v>84.87</v>
       </c>
       <c r="AH6">
-        <v>84.9</v>
+        <v>87.35</v>
       </c>
       <c r="AI6">
-        <v>87.37</v>
+        <v>90.16</v>
       </c>
       <c r="AJ6">
-        <v>90.16</v>
+        <v>102.62</v>
       </c>
       <c r="AK6">
-        <v>102.62</v>
+        <v>128.91</v>
       </c>
       <c r="AL6">
-        <v>128.88</v>
+        <v>153.47</v>
       </c>
       <c r="AM6">
-        <v>153.47</v>
+        <v>132.08000000000001</v>
       </c>
       <c r="AN6">
-        <v>132.05000000000001</v>
+        <v>119.8</v>
       </c>
       <c r="AO6">
-        <v>119.83</v>
+        <v>134.74</v>
       </c>
       <c r="AP6">
-        <v>134.76</v>
+        <v>111.49</v>
       </c>
       <c r="AQ6">
-        <v>111.42</v>
+        <v>87.99</v>
       </c>
       <c r="AR6">
-        <v>88.02</v>
+        <v>72.930000000000007</v>
       </c>
       <c r="AS6">
-        <v>72.900000000000006</v>
+        <v>57.06</v>
       </c>
       <c r="AT6">
-        <v>56.99</v>
+        <v>43.8</v>
       </c>
       <c r="AU6">
-        <v>43.83</v>
+        <v>44.29</v>
       </c>
       <c r="AV6">
-        <v>44.19</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="AW6">
-        <v>40.81</v>
+        <v>35.24</v>
       </c>
       <c r="AX6">
-        <v>35.21</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="AY6">
-        <v>37.07</v>
+        <v>48.89</v>
       </c>
       <c r="AZ6">
-        <v>48.76</v>
+        <v>57.42</v>
       </c>
       <c r="BA6">
-        <v>56.31</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B7">
-        <v>38.57</v>
+        <v>28.55</v>
       </c>
       <c r="C7">
-        <v>28.55</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="D7">
-        <v>17.170000000000002</v>
+        <v>11.54</v>
       </c>
       <c r="E7">
-        <v>11.54</v>
+        <v>7.48</v>
       </c>
       <c r="F7">
-        <v>7.48</v>
+        <v>5.63</v>
       </c>
       <c r="G7">
-        <v>5.63</v>
+        <v>3.51</v>
       </c>
       <c r="H7">
-        <v>3.51</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I7">
-        <v>2.5299999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J7">
-        <v>2.1800000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="K7">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L7">
+        <v>1.58</v>
+      </c>
+      <c r="M7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M7">
-        <v>1.58</v>
-      </c>
       <c r="N7">
-        <v>1.0900000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="O7">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P7">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="Q7">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R7">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="S7">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T7">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="U7">
-        <v>2.15</v>
+        <v>2.61</v>
       </c>
       <c r="V7">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="X7">
-        <v>2.89</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="Y7">
-        <v>4.1100000000000003</v>
+        <v>7.05</v>
       </c>
       <c r="Z7">
-        <v>7.05</v>
+        <v>7.21</v>
       </c>
       <c r="AA7">
-        <v>7.21</v>
+        <v>9.5</v>
       </c>
       <c r="AB7">
-        <v>9.5</v>
+        <v>15.98</v>
       </c>
       <c r="AC7">
-        <v>15.98</v>
+        <v>25.42</v>
       </c>
       <c r="AD7">
-        <v>25.42</v>
+        <v>48.99</v>
       </c>
       <c r="AE7">
-        <v>48.99</v>
+        <v>78.41</v>
       </c>
       <c r="AF7">
-        <v>78.41</v>
+        <v>86.61</v>
       </c>
       <c r="AG7">
-        <v>86.58</v>
+        <v>89.79</v>
       </c>
       <c r="AH7">
-        <v>89.74</v>
+        <v>91.34</v>
       </c>
       <c r="AI7">
-        <v>91.4</v>
+        <v>87.01</v>
       </c>
       <c r="AJ7">
-        <v>87.01</v>
+        <v>94.85</v>
       </c>
       <c r="AK7">
-        <v>94.85</v>
+        <v>119.49</v>
       </c>
       <c r="AL7">
-        <v>119.51</v>
+        <v>140.74</v>
       </c>
       <c r="AM7">
-        <v>140.74</v>
+        <v>121.2</v>
       </c>
       <c r="AN7">
-        <v>121.2</v>
+        <v>112.63</v>
       </c>
       <c r="AO7">
-        <v>112.63</v>
+        <v>131.35</v>
       </c>
       <c r="AP7">
-        <v>131.32</v>
+        <v>99.64</v>
       </c>
       <c r="AQ7">
-        <v>99.67</v>
+        <v>83.39</v>
       </c>
       <c r="AR7">
-        <v>83.42</v>
+        <v>67.58</v>
       </c>
       <c r="AS7">
-        <v>67.58</v>
+        <v>56.18</v>
       </c>
       <c r="AT7">
-        <v>56.18</v>
+        <v>42.98</v>
       </c>
       <c r="AU7">
-        <v>42.98</v>
+        <v>43.47</v>
       </c>
       <c r="AV7">
-        <v>43.47</v>
+        <v>44.85</v>
       </c>
       <c r="AW7">
-        <v>44.83</v>
+        <v>42.46</v>
       </c>
       <c r="AX7">
-        <v>42.46</v>
+        <v>49.24</v>
       </c>
       <c r="AY7">
-        <v>49.18</v>
+        <v>64.91</v>
       </c>
       <c r="AZ7">
-        <v>64.78</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="BA7">
-        <v>75.989999999999995</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B8">
-        <v>34.82</v>
+        <v>22.99</v>
       </c>
       <c r="C8">
-        <v>22.99</v>
+        <v>13.62</v>
       </c>
       <c r="D8">
-        <v>13.62</v>
+        <v>10.37</v>
       </c>
       <c r="E8">
-        <v>10.37</v>
+        <v>5.47</v>
       </c>
       <c r="F8">
-        <v>5.47</v>
+        <v>4.28</v>
       </c>
       <c r="G8">
-        <v>4.28</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I8">
-        <v>2.5299999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J8">
-        <v>2.1800000000000002</v>
+        <v>1.23</v>
       </c>
       <c r="K8">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="L8">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
       <c r="M8">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="N8">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="O8">
         <v>1.28</v>
       </c>
       <c r="P8">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="Q8">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S8">
-        <v>1.77</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="T8">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U8">
         <v>2.4900000000000002</v>
       </c>
-      <c r="U8">
-        <v>2.2599999999999998</v>
-      </c>
       <c r="V8">
-        <v>2.4900000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="W8">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="X8">
-        <v>2.61</v>
+        <v>4.63</v>
       </c>
       <c r="Y8">
-        <v>4.63</v>
+        <v>5.97</v>
       </c>
       <c r="Z8">
-        <v>5.97</v>
+        <v>6.28</v>
       </c>
       <c r="AA8">
-        <v>6.26</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="AB8">
-        <v>9.2799999999999994</v>
+        <v>14.1</v>
       </c>
       <c r="AC8">
-        <v>14.1</v>
+        <v>26.43</v>
       </c>
       <c r="AD8">
-        <v>26.43</v>
+        <v>46.66</v>
       </c>
       <c r="AE8">
-        <v>46.63</v>
+        <v>73.12</v>
       </c>
       <c r="AF8">
-        <v>73.08</v>
+        <v>87.63</v>
       </c>
       <c r="AG8">
-        <v>87.61</v>
+        <v>82.63</v>
       </c>
       <c r="AH8">
-        <v>82.63</v>
+        <v>85.45</v>
       </c>
       <c r="AI8">
-        <v>85.45</v>
+        <v>85.24</v>
       </c>
       <c r="AJ8">
-        <v>85.22</v>
+        <v>84.87</v>
       </c>
       <c r="AK8">
-        <v>84.89</v>
+        <v>106.54</v>
       </c>
       <c r="AL8">
-        <v>106.54</v>
+        <v>130.75</v>
       </c>
       <c r="AM8">
-        <v>130.71</v>
+        <v>115.06</v>
       </c>
       <c r="AN8">
-        <v>115.06</v>
+        <v>102.49</v>
       </c>
       <c r="AO8">
-        <v>102.49</v>
+        <v>117.7</v>
       </c>
       <c r="AP8">
-        <v>117.62</v>
+        <v>90.86</v>
       </c>
       <c r="AQ8">
-        <v>90.86</v>
+        <v>74.62</v>
       </c>
       <c r="AR8">
-        <v>74.64</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="AS8">
-        <v>64.33</v>
+        <v>52.17</v>
       </c>
       <c r="AT8">
-        <v>52.17</v>
+        <v>39.53</v>
       </c>
       <c r="AU8">
-        <v>39.53</v>
+        <v>42.13</v>
       </c>
       <c r="AV8">
-        <v>42.13</v>
+        <v>43.79</v>
       </c>
       <c r="AW8">
-        <v>43.79</v>
+        <v>41.1</v>
       </c>
       <c r="AX8">
-        <v>41.12</v>
+        <v>47.27</v>
       </c>
       <c r="AY8">
-        <v>47.21</v>
+        <v>65.84</v>
       </c>
       <c r="AZ8">
-        <v>65.61</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="BA8">
-        <v>78.88</v>
+        <v>79.790000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B9">
-        <v>49.22</v>
+        <v>31.73</v>
       </c>
       <c r="C9">
-        <v>31.75</v>
+        <v>19.23</v>
       </c>
       <c r="D9">
-        <v>19.23</v>
+        <v>11.93</v>
       </c>
       <c r="E9">
-        <v>11.93</v>
+        <v>7.17</v>
       </c>
       <c r="F9">
-        <v>7.17</v>
+        <v>5.88</v>
       </c>
       <c r="G9">
-        <v>5.88</v>
+        <v>4.25</v>
       </c>
       <c r="H9">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J9">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
       <c r="K9">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="L9">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
       <c r="M9">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="O9">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="P9">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>2.69</v>
       </c>
       <c r="R9">
         <v>2.69</v>
       </c>
       <c r="S9">
-        <v>2.69</v>
+        <v>3.61</v>
       </c>
       <c r="T9">
-        <v>3.61</v>
+        <v>3.4</v>
       </c>
       <c r="U9">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="V9">
-        <v>4.2</v>
+        <v>4.32</v>
       </c>
       <c r="W9">
-        <v>4.32</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="X9">
-        <v>4.3899999999999997</v>
+        <v>5.98</v>
       </c>
       <c r="Y9">
-        <v>5.98</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="Z9">
-        <v>8.7100000000000009</v>
+        <v>9.6</v>
       </c>
       <c r="AA9">
-        <v>9.6</v>
+        <v>12.06</v>
       </c>
       <c r="AB9">
-        <v>12.06</v>
+        <v>22.5</v>
       </c>
       <c r="AC9">
-        <v>22.49</v>
+        <v>37.54</v>
       </c>
       <c r="AD9">
-        <v>37.520000000000003</v>
+        <v>70.12</v>
       </c>
       <c r="AE9">
-        <v>70.099999999999994</v>
+        <v>106.17</v>
       </c>
       <c r="AF9">
-        <v>106.17</v>
+        <v>121.61</v>
       </c>
       <c r="AG9">
-        <v>121.53</v>
+        <v>122.44</v>
       </c>
       <c r="AH9">
-        <v>122.42</v>
+        <v>129.41</v>
       </c>
       <c r="AI9">
-        <v>129.44999999999999</v>
+        <v>123.96</v>
       </c>
       <c r="AJ9">
-        <v>123.96</v>
+        <v>135.49</v>
       </c>
       <c r="AK9">
-        <v>135.49</v>
+        <v>167.09</v>
       </c>
       <c r="AL9">
-        <v>167.09</v>
+        <v>195.26</v>
       </c>
       <c r="AM9">
-        <v>195.3</v>
+        <v>162.61000000000001</v>
       </c>
       <c r="AN9">
-        <v>162.65</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="AO9">
-        <v>146.54</v>
+        <v>164.05</v>
       </c>
       <c r="AP9">
-        <v>164.03</v>
+        <v>133.72</v>
       </c>
       <c r="AQ9">
-        <v>133.68</v>
+        <v>110.38</v>
       </c>
       <c r="AR9">
-        <v>110.38</v>
+        <v>90.78</v>
       </c>
       <c r="AS9">
-        <v>90.78</v>
+        <v>74.739999999999995</v>
       </c>
       <c r="AT9">
-        <v>74.7</v>
+        <v>56.45</v>
       </c>
       <c r="AU9">
-        <v>56.45</v>
+        <v>57.65</v>
       </c>
       <c r="AV9">
-        <v>57.65</v>
+        <v>62.34</v>
       </c>
       <c r="AW9">
-        <v>62.33</v>
+        <v>60.7</v>
       </c>
       <c r="AX9">
-        <v>60.68</v>
+        <v>73.06</v>
       </c>
       <c r="AY9">
-        <v>72.97</v>
+        <v>93.98</v>
       </c>
       <c r="AZ9">
-        <v>93.75</v>
+        <v>116.52</v>
       </c>
       <c r="BA9">
-        <v>114.84</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B10">
-        <v>54.44</v>
+        <v>38.71</v>
       </c>
       <c r="C10">
-        <v>38.71</v>
+        <v>23.26</v>
       </c>
       <c r="D10">
-        <v>23.26</v>
+        <v>15.73</v>
       </c>
       <c r="E10">
-        <v>15.73</v>
+        <v>8.89</v>
       </c>
       <c r="F10">
-        <v>8.89</v>
+        <v>7.57</v>
       </c>
       <c r="G10">
-        <v>7.57</v>
+        <v>5.34</v>
       </c>
       <c r="H10">
-        <v>5.34</v>
+        <v>3.95</v>
       </c>
       <c r="I10">
-        <v>3.95</v>
+        <v>3.52</v>
       </c>
       <c r="J10">
-        <v>3.52</v>
+        <v>2.11</v>
       </c>
       <c r="K10">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="L10">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="M10">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="N10">
-        <v>3.01</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O10">
-        <v>2.2999999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="P10">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="Q10">
-        <v>2.63</v>
+        <v>3.58</v>
       </c>
       <c r="R10">
-        <v>3.58</v>
+        <v>4.26</v>
       </c>
       <c r="S10">
-        <v>4.2300000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="T10">
-        <v>4.57</v>
+        <v>4.84</v>
       </c>
       <c r="U10">
-        <v>4.84</v>
+        <v>6.37</v>
       </c>
       <c r="V10">
-        <v>6.37</v>
+        <v>5.25</v>
       </c>
       <c r="W10">
-        <v>5.27</v>
+        <v>5.83</v>
       </c>
       <c r="X10">
-        <v>5.83</v>
+        <v>8.25</v>
       </c>
       <c r="Y10">
-        <v>8.25</v>
+        <v>11.31</v>
       </c>
       <c r="Z10">
-        <v>11.31</v>
+        <v>12.84</v>
       </c>
       <c r="AA10">
-        <v>12.84</v>
+        <v>16.46</v>
       </c>
       <c r="AB10">
-        <v>16.46</v>
+        <v>27.76</v>
       </c>
       <c r="AC10">
-        <v>27.77</v>
+        <v>44.5</v>
       </c>
       <c r="AD10">
-        <v>44.51</v>
+        <v>85.45</v>
       </c>
       <c r="AE10">
-        <v>85.45</v>
+        <v>133.15</v>
       </c>
       <c r="AF10">
-        <v>133.12</v>
+        <v>150.94</v>
       </c>
       <c r="AG10">
-        <v>150.88</v>
+        <v>152.94</v>
       </c>
       <c r="AH10">
-        <v>152.88999999999999</v>
+        <v>152.02000000000001</v>
       </c>
       <c r="AI10">
-        <v>152.03</v>
+        <v>146.66</v>
       </c>
       <c r="AJ10">
-        <v>146.63</v>
+        <v>153.83000000000001</v>
       </c>
       <c r="AK10">
-        <v>153.82</v>
+        <v>193.8</v>
       </c>
       <c r="AL10">
-        <v>193.83</v>
+        <v>222.88</v>
       </c>
       <c r="AM10">
-        <v>222.86</v>
+        <v>183.74</v>
       </c>
       <c r="AN10">
-        <v>183.72</v>
+        <v>164.58</v>
       </c>
       <c r="AO10">
-        <v>164.56</v>
+        <v>183.01</v>
       </c>
       <c r="AP10">
-        <v>183.01</v>
+        <v>149.02000000000001</v>
       </c>
       <c r="AQ10">
-        <v>148.96</v>
+        <v>123.83</v>
       </c>
       <c r="AR10">
-        <v>123.86</v>
+        <v>104.27</v>
       </c>
       <c r="AS10">
-        <v>104.31</v>
+        <v>86.28</v>
       </c>
       <c r="AT10">
-        <v>86.28</v>
+        <v>66.94</v>
       </c>
       <c r="AU10">
-        <v>66.91</v>
+        <v>68.37</v>
       </c>
       <c r="AV10">
-        <v>68.319999999999993</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="AW10">
-        <v>71.94</v>
+        <v>68.91</v>
       </c>
       <c r="AX10">
-        <v>68.87</v>
+        <v>84.78</v>
       </c>
       <c r="AY10">
-        <v>84.78</v>
+        <v>108.01</v>
       </c>
       <c r="AZ10">
-        <v>107.7</v>
+        <v>134.94</v>
       </c>
       <c r="BA10">
-        <v>132.55000000000001</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B11">
-        <v>55.09</v>
+        <v>38.94</v>
       </c>
       <c r="C11">
-        <v>38.94</v>
+        <v>23.23</v>
       </c>
       <c r="D11">
-        <v>23.25</v>
+        <v>14.8</v>
       </c>
       <c r="E11">
-        <v>14.78</v>
+        <v>9.02</v>
       </c>
       <c r="F11">
-        <v>9.02</v>
+        <v>7.75</v>
       </c>
       <c r="G11">
-        <v>7.75</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>5.59</v>
+        <v>3.74</v>
       </c>
       <c r="I11">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="J11">
-        <v>3.59</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K11">
-        <v>2.2400000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L11">
-        <v>2.1800000000000002</v>
+        <v>4.72</v>
       </c>
       <c r="M11">
-        <v>4.72</v>
+        <v>3.99</v>
       </c>
       <c r="N11">
-        <v>3.99</v>
+        <v>2.77</v>
       </c>
       <c r="O11">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
       <c r="P11">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>3.1</v>
+        <v>4.38</v>
       </c>
       <c r="R11">
-        <v>4.38</v>
+        <v>5.22</v>
       </c>
       <c r="S11">
-        <v>5.22</v>
+        <v>6.21</v>
       </c>
       <c r="T11">
-        <v>6.21</v>
+        <v>7.05</v>
       </c>
       <c r="U11">
-        <v>7.05</v>
+        <v>8.35</v>
       </c>
       <c r="V11">
-        <v>8.35</v>
+        <v>8.02</v>
       </c>
       <c r="W11">
-        <v>8.02</v>
+        <v>8.23</v>
       </c>
       <c r="X11">
-        <v>8.23</v>
+        <v>9.98</v>
       </c>
       <c r="Y11">
-        <v>9.98</v>
+        <v>13.37</v>
       </c>
       <c r="Z11">
-        <v>13.37</v>
+        <v>14.83</v>
       </c>
       <c r="AA11">
-        <v>14.83</v>
+        <v>17.97</v>
       </c>
       <c r="AB11">
-        <v>17.97</v>
+        <v>33.83</v>
       </c>
       <c r="AC11">
-        <v>33.81</v>
+        <v>53.31</v>
       </c>
       <c r="AD11">
-        <v>53.31</v>
+        <v>95.66</v>
       </c>
       <c r="AE11">
-        <v>95.64</v>
+        <v>145.66999999999999</v>
       </c>
       <c r="AF11">
-        <v>145.69</v>
+        <v>163.36000000000001</v>
       </c>
       <c r="AG11">
-        <v>163.38</v>
+        <v>164.06</v>
       </c>
       <c r="AH11">
-        <v>164.11</v>
+        <v>161.51</v>
       </c>
       <c r="AI11">
-        <v>161.51</v>
+        <v>154.16999999999999</v>
       </c>
       <c r="AJ11">
-        <v>154.16999999999999</v>
+        <v>157.4</v>
       </c>
       <c r="AK11">
-        <v>157.38999999999999</v>
+        <v>197.64</v>
       </c>
       <c r="AL11">
-        <v>197.59</v>
+        <v>222.45</v>
       </c>
       <c r="AM11">
-        <v>222.44</v>
+        <v>178.7</v>
       </c>
       <c r="AN11">
-        <v>178.74</v>
+        <v>156.88</v>
       </c>
       <c r="AO11">
-        <v>156.85</v>
+        <v>180.13</v>
       </c>
       <c r="AP11">
-        <v>180.08</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="AQ11">
-        <v>145.97</v>
+        <v>121.99</v>
       </c>
       <c r="AR11">
-        <v>122.02</v>
+        <v>99.62</v>
       </c>
       <c r="AS11">
-        <v>99.64</v>
+        <v>79.09</v>
       </c>
       <c r="AT11">
-        <v>79.040000000000006</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="AU11">
-        <v>64.25</v>
+        <v>67.3</v>
       </c>
       <c r="AV11">
-        <v>67.260000000000005</v>
+        <v>70.77</v>
       </c>
       <c r="AW11">
-        <v>70.73</v>
+        <v>73.8</v>
       </c>
       <c r="AX11">
-        <v>73.739999999999995</v>
+        <v>88.06</v>
       </c>
       <c r="AY11">
-        <v>87.97</v>
+        <v>112.19</v>
       </c>
       <c r="AZ11">
-        <v>111.96</v>
+        <v>139.59</v>
       </c>
       <c r="BA11">
-        <v>137.44999999999999</v>
+        <v>134.09</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B12">
-        <v>51.54</v>
+        <v>36.35</v>
       </c>
       <c r="C12">
-        <v>36.35</v>
+        <v>22.26</v>
       </c>
       <c r="D12">
-        <v>22.26</v>
+        <v>14.96</v>
       </c>
       <c r="E12">
-        <v>14.96</v>
+        <v>8.89</v>
       </c>
       <c r="F12">
-        <v>8.89</v>
+        <v>8.5</v>
       </c>
       <c r="G12">
-        <v>8.5</v>
+        <v>6.26</v>
       </c>
       <c r="H12">
-        <v>6.26</v>
+        <v>4.8</v>
       </c>
       <c r="I12">
-        <v>4.8</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J12">
-        <v>4.0599999999999996</v>
+        <v>3.05</v>
       </c>
       <c r="K12">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="L12">
-        <v>2.75</v>
+        <v>7.11</v>
       </c>
       <c r="M12">
-        <v>7.11</v>
+        <v>5.27</v>
       </c>
       <c r="N12">
-        <v>5.27</v>
+        <v>4.17</v>
       </c>
       <c r="O12">
-        <v>4.17</v>
+        <v>3.43</v>
       </c>
       <c r="P12">
-        <v>3.45</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q12">
-        <v>4.4000000000000004</v>
+        <v>6.33</v>
       </c>
       <c r="R12">
-        <v>6.33</v>
+        <v>7.3</v>
       </c>
       <c r="S12">
-        <v>7.28</v>
+        <v>8.65</v>
       </c>
       <c r="T12">
-        <v>8.65</v>
+        <v>10.9</v>
       </c>
       <c r="U12">
-        <v>10.9</v>
+        <v>13.18</v>
       </c>
       <c r="V12">
-        <v>13.18</v>
+        <v>11.42</v>
       </c>
       <c r="W12">
-        <v>11.42</v>
+        <v>11.64</v>
       </c>
       <c r="X12">
-        <v>11.64</v>
+        <v>13.14</v>
       </c>
       <c r="Y12">
-        <v>13.14</v>
+        <v>16.59</v>
       </c>
       <c r="Z12">
-        <v>16.59</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="AA12">
-        <v>17.010000000000002</v>
+        <v>22.76</v>
       </c>
       <c r="AB12">
-        <v>22.74</v>
+        <v>38.65</v>
       </c>
       <c r="AC12">
-        <v>38.65</v>
+        <v>59.32</v>
       </c>
       <c r="AD12">
-        <v>59.32</v>
+        <v>110.21</v>
       </c>
       <c r="AE12">
-        <v>110.2</v>
+        <v>158.99</v>
       </c>
       <c r="AF12">
-        <v>159.06</v>
+        <v>179.75</v>
       </c>
       <c r="AG12">
-        <v>179.71</v>
+        <v>176.28</v>
       </c>
       <c r="AH12">
-        <v>176.28</v>
+        <v>183.6</v>
       </c>
       <c r="AI12">
-        <v>183.6</v>
+        <v>171.83</v>
       </c>
       <c r="AJ12">
-        <v>171.81</v>
+        <v>175.28</v>
       </c>
       <c r="AK12">
-        <v>175.24</v>
+        <v>210.57</v>
       </c>
       <c r="AL12">
-        <v>210.57</v>
+        <v>235.98</v>
       </c>
       <c r="AM12">
-        <v>235.92</v>
+        <v>184.51</v>
       </c>
       <c r="AN12">
-        <v>184.53</v>
+        <v>162.4</v>
       </c>
       <c r="AO12">
-        <v>162.36000000000001</v>
+        <v>185.65</v>
       </c>
       <c r="AP12">
-        <v>185.63</v>
+        <v>151.06</v>
       </c>
       <c r="AQ12">
-        <v>151.04</v>
+        <v>122.69</v>
       </c>
       <c r="AR12">
-        <v>122.65</v>
+        <v>100.6</v>
       </c>
       <c r="AS12">
-        <v>100.64</v>
+        <v>85.14</v>
       </c>
       <c r="AT12">
-        <v>85.13</v>
+        <v>67.47</v>
       </c>
       <c r="AU12">
-        <v>67.47</v>
+        <v>71.61</v>
       </c>
       <c r="AV12">
-        <v>71.62</v>
+        <v>76.97</v>
       </c>
       <c r="AW12">
-        <v>76.930000000000007</v>
+        <v>81.489999999999995</v>
       </c>
       <c r="AX12">
-        <v>81.47</v>
+        <v>98.68</v>
       </c>
       <c r="AY12">
-        <v>98.55</v>
+        <v>123.68</v>
       </c>
       <c r="AZ12">
-        <v>123.32</v>
+        <v>155.38</v>
       </c>
       <c r="BA12">
-        <v>153.07</v>
+        <v>149.54</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C13">
-        <v>34.159999999999997</v>
+        <v>20.86</v>
       </c>
       <c r="D13">
-        <v>20.9</v>
+        <v>14.22</v>
       </c>
       <c r="E13">
-        <v>14.22</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F13">
-        <v>9.2899999999999991</v>
+        <v>8.23</v>
       </c>
       <c r="G13">
-        <v>8.23</v>
+        <v>7.27</v>
       </c>
       <c r="H13">
-        <v>7.25</v>
+        <v>4.97</v>
       </c>
       <c r="I13">
-        <v>4.99</v>
+        <v>4.3</v>
       </c>
       <c r="J13">
-        <v>4.3</v>
+        <v>3.59</v>
       </c>
       <c r="K13">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>9.23</v>
       </c>
       <c r="M13">
-        <v>9.23</v>
+        <v>5.56</v>
       </c>
       <c r="N13">
-        <v>5.56</v>
+        <v>4.38</v>
       </c>
       <c r="O13">
-        <v>4.38</v>
+        <v>3.87</v>
       </c>
       <c r="P13">
-        <v>3.87</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Q13">
-        <v>5.1100000000000003</v>
+        <v>6.54</v>
       </c>
       <c r="R13">
-        <v>6.54</v>
+        <v>8.74</v>
       </c>
       <c r="S13">
-        <v>8.7200000000000006</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="T13">
-        <v>9.9600000000000009</v>
+        <v>13.02</v>
       </c>
       <c r="U13">
-        <v>13.02</v>
+        <v>14.57</v>
       </c>
       <c r="V13">
-        <v>14.57</v>
+        <v>13.44</v>
       </c>
       <c r="W13">
-        <v>13.46</v>
+        <v>13.18</v>
       </c>
       <c r="X13">
-        <v>13.18</v>
+        <v>13.99</v>
       </c>
       <c r="Y13">
-        <v>13.99</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="Z13">
-        <v>17.190000000000001</v>
+        <v>17.52</v>
       </c>
       <c r="AA13">
-        <v>17.54</v>
+        <v>21.41</v>
       </c>
       <c r="AB13">
-        <v>21.41</v>
+        <v>38.07</v>
       </c>
       <c r="AC13">
-        <v>38.03</v>
+        <v>59.18</v>
       </c>
       <c r="AD13">
-        <v>59.18</v>
+        <v>107.98</v>
       </c>
       <c r="AE13">
-        <v>108.01</v>
+        <v>160.46</v>
       </c>
       <c r="AF13">
-        <v>160.44</v>
+        <v>180.93</v>
       </c>
       <c r="AG13">
-        <v>180.87</v>
+        <v>183.13</v>
       </c>
       <c r="AH13">
-        <v>183.13</v>
+        <v>188.14</v>
       </c>
       <c r="AI13">
-        <v>188.12</v>
+        <v>179.44</v>
       </c>
       <c r="AJ13">
-        <v>179.38</v>
+        <v>179.83</v>
       </c>
       <c r="AK13">
-        <v>179.81</v>
+        <v>222.12</v>
       </c>
       <c r="AL13">
-        <v>222.08</v>
+        <v>244.35</v>
       </c>
       <c r="AM13">
-        <v>244.39</v>
+        <v>193.99</v>
       </c>
       <c r="AN13">
-        <v>193.99</v>
+        <v>163.62</v>
       </c>
       <c r="AO13">
-        <v>163.6</v>
+        <v>194.13</v>
       </c>
       <c r="AP13">
-        <v>194.15</v>
+        <v>154.1</v>
       </c>
       <c r="AQ13">
-        <v>154.06</v>
+        <v>126.93</v>
       </c>
       <c r="AR13">
-        <v>126.93</v>
+        <v>104.32</v>
       </c>
       <c r="AS13">
-        <v>104.38</v>
+        <v>87.45</v>
       </c>
       <c r="AT13">
-        <v>87.39</v>
+        <v>70.75</v>
       </c>
       <c r="AU13">
-        <v>70.75</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AV13">
-        <v>73.11</v>
+        <v>84.48</v>
       </c>
       <c r="AW13">
-        <v>84.46</v>
+        <v>87.21</v>
       </c>
       <c r="AX13">
-        <v>87.15</v>
+        <v>109</v>
       </c>
       <c r="AY13">
-        <v>108.88</v>
+        <v>142.57</v>
       </c>
       <c r="AZ13">
-        <v>142.16999999999999</v>
+        <v>185.96</v>
       </c>
       <c r="BA13">
-        <v>182.87</v>
+        <v>167.28</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B14">
-        <v>41.69</v>
+        <v>31.21</v>
       </c>
       <c r="C14">
-        <v>31.21</v>
+        <v>18.55</v>
       </c>
       <c r="D14">
-        <v>18.57</v>
+        <v>14.46</v>
       </c>
       <c r="E14">
-        <v>14.44</v>
+        <v>8.75</v>
       </c>
       <c r="F14">
-        <v>8.77</v>
+        <v>7.96</v>
       </c>
       <c r="G14">
-        <v>7.96</v>
+        <v>6.67</v>
       </c>
       <c r="H14">
-        <v>6.67</v>
+        <v>5.22</v>
       </c>
       <c r="I14">
-        <v>5.22</v>
+        <v>4.54</v>
       </c>
       <c r="J14">
-        <v>4.54</v>
+        <v>2.95</v>
       </c>
       <c r="K14">
-        <v>2.95</v>
+        <v>3.67</v>
       </c>
       <c r="L14">
-        <v>3.67</v>
+        <v>7.26</v>
       </c>
       <c r="M14">
-        <v>7.26</v>
+        <v>5.65</v>
       </c>
       <c r="N14">
-        <v>5.65</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="O14">
-        <v>4.2699999999999996</v>
+        <v>3.86</v>
       </c>
       <c r="P14">
-        <v>3.88</v>
+        <v>4.75</v>
       </c>
       <c r="Q14">
-        <v>4.75</v>
+        <v>6.77</v>
       </c>
       <c r="R14">
-        <v>6.77</v>
+        <v>7.24</v>
       </c>
       <c r="S14">
-        <v>7.24</v>
+        <v>9.74</v>
       </c>
       <c r="T14">
-        <v>9.7200000000000006</v>
+        <v>12.16</v>
       </c>
       <c r="U14">
-        <v>12.18</v>
+        <v>14.35</v>
       </c>
       <c r="V14">
-        <v>14.35</v>
+        <v>13.52</v>
       </c>
       <c r="W14">
-        <v>13.52</v>
+        <v>12.27</v>
       </c>
       <c r="X14">
-        <v>12.27</v>
+        <v>13.25</v>
       </c>
       <c r="Y14">
-        <v>13.25</v>
+        <v>17.05</v>
       </c>
       <c r="Z14">
-        <v>17.05</v>
+        <v>19.04</v>
       </c>
       <c r="AA14">
-        <v>19.04</v>
+        <v>21.8</v>
       </c>
       <c r="AB14">
-        <v>21.8</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="AC14">
-        <v>34.520000000000003</v>
+        <v>58.7</v>
       </c>
       <c r="AD14">
-        <v>58.74</v>
+        <v>102.04</v>
       </c>
       <c r="AE14">
-        <v>102.02</v>
+        <v>152.82</v>
       </c>
       <c r="AF14">
-        <v>152.86000000000001</v>
+        <v>169.36</v>
       </c>
       <c r="AG14">
-        <v>169.4</v>
+        <v>173.81</v>
       </c>
       <c r="AH14">
-        <v>173.75</v>
+        <v>174.07</v>
       </c>
       <c r="AI14">
-        <v>174.09</v>
+        <v>164.71</v>
       </c>
       <c r="AJ14">
-        <v>164.69</v>
+        <v>172.73</v>
       </c>
       <c r="AK14">
-        <v>172.77</v>
+        <v>208.03</v>
       </c>
       <c r="AL14">
-        <v>208.03</v>
+        <v>231.21</v>
       </c>
       <c r="AM14">
-        <v>231.23</v>
+        <v>180.12</v>
       </c>
       <c r="AN14">
-        <v>180.12</v>
+        <v>153.03</v>
       </c>
       <c r="AO14">
-        <v>152.99</v>
+        <v>191.62</v>
       </c>
       <c r="AP14">
-        <v>191.6</v>
+        <v>151.57</v>
       </c>
       <c r="AQ14">
-        <v>151.53</v>
+        <v>119.85</v>
       </c>
       <c r="AR14">
-        <v>119.83</v>
+        <v>98.46</v>
       </c>
       <c r="AS14">
-        <v>98.48</v>
+        <v>84.57</v>
       </c>
       <c r="AT14">
-        <v>84.53</v>
+        <v>68.12</v>
       </c>
       <c r="AU14">
-        <v>68.180000000000007</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AV14">
-        <v>70.56</v>
+        <v>79.16</v>
       </c>
       <c r="AW14">
-        <v>79.14</v>
+        <v>86.76</v>
       </c>
       <c r="AX14">
-        <v>86.74</v>
+        <v>109.03</v>
       </c>
       <c r="AY14">
-        <v>109.03</v>
+        <v>144.35</v>
       </c>
       <c r="AZ14">
-        <v>143.99</v>
+        <v>179.18</v>
       </c>
       <c r="BA14">
-        <v>176.62</v>
+        <v>166.53</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B15">
-        <v>44.03</v>
+        <v>31.86</v>
       </c>
       <c r="C15">
-        <v>31.86</v>
+        <v>21.93</v>
       </c>
       <c r="D15">
-        <v>21.91</v>
+        <v>16.54</v>
       </c>
       <c r="E15">
-        <v>16.54</v>
+        <v>10.23</v>
       </c>
       <c r="F15">
-        <v>10.23</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="G15">
-        <v>8.8800000000000008</v>
+        <v>7.17</v>
       </c>
       <c r="H15">
-        <v>7.11</v>
+        <v>5.8</v>
       </c>
       <c r="I15">
-        <v>5.84</v>
+        <v>4.91</v>
       </c>
       <c r="J15">
-        <v>4.91</v>
+        <v>3.75</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>4.08</v>
       </c>
       <c r="L15">
-        <v>4.08</v>
+        <v>7.5</v>
       </c>
       <c r="M15">
-        <v>7.5</v>
+        <v>6.04</v>
       </c>
       <c r="N15">
-        <v>6.04</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="O15">
-        <v>4.6900000000000004</v>
+        <v>4.71</v>
       </c>
       <c r="P15">
-        <v>4.71</v>
+        <v>5.42</v>
       </c>
       <c r="Q15">
-        <v>5.4</v>
+        <v>6.97</v>
       </c>
       <c r="R15">
-        <v>6.99</v>
+        <v>7.7</v>
       </c>
       <c r="S15">
-        <v>7.7</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="T15">
-        <v>9.35</v>
+        <v>12.74</v>
       </c>
       <c r="U15">
-        <v>12.74</v>
+        <v>17.2</v>
       </c>
       <c r="V15">
-        <v>17.2</v>
+        <v>15.61</v>
       </c>
       <c r="W15">
-        <v>15.58</v>
+        <v>17.09</v>
       </c>
       <c r="X15">
         <v>17.09</v>
       </c>
       <c r="Y15">
-        <v>17.100000000000001</v>
+        <v>21.96</v>
       </c>
       <c r="Z15">
-        <v>21.96</v>
+        <v>23.65</v>
       </c>
       <c r="AA15">
-        <v>23.67</v>
+        <v>27.73</v>
       </c>
       <c r="AB15">
-        <v>27.73</v>
+        <v>42.92</v>
       </c>
       <c r="AC15">
-        <v>42.96</v>
+        <v>70.2</v>
       </c>
       <c r="AD15">
-        <v>70.2</v>
+        <v>122.19</v>
       </c>
       <c r="AE15">
-        <v>122.17</v>
+        <v>174.24</v>
       </c>
       <c r="AF15">
-        <v>174.26</v>
+        <v>190.89</v>
       </c>
       <c r="AG15">
-        <v>190.89</v>
+        <v>190.78</v>
       </c>
       <c r="AH15">
-        <v>190.75</v>
+        <v>183.56</v>
       </c>
       <c r="AI15">
-        <v>183.56</v>
+        <v>170.64</v>
       </c>
       <c r="AJ15">
-        <v>170.68</v>
+        <v>172.59</v>
       </c>
       <c r="AK15">
-        <v>172.59</v>
+        <v>209.84</v>
       </c>
       <c r="AL15">
-        <v>209.82</v>
+        <v>236.89</v>
       </c>
       <c r="AM15">
-        <v>236.86</v>
+        <v>182.76</v>
       </c>
       <c r="AN15">
-        <v>182.8</v>
+        <v>167.37</v>
       </c>
       <c r="AO15">
-        <v>167.31</v>
+        <v>211.04</v>
       </c>
       <c r="AP15">
-        <v>211.06</v>
+        <v>164.8</v>
       </c>
       <c r="AQ15">
-        <v>164.73</v>
+        <v>127.86</v>
       </c>
       <c r="AR15">
-        <v>127.9</v>
+        <v>105.19</v>
       </c>
       <c r="AS15">
-        <v>105.15</v>
+        <v>89.52</v>
       </c>
       <c r="AT15">
-        <v>89.49</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="AU15">
-        <v>70.98</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="AV15">
-        <v>74.819999999999993</v>
+        <v>82.81</v>
       </c>
       <c r="AW15">
-        <v>82.72</v>
+        <v>89.32</v>
       </c>
       <c r="AX15">
-        <v>89.29</v>
+        <v>109.74</v>
       </c>
       <c r="AY15">
-        <v>109.74</v>
+        <v>143.58000000000001</v>
       </c>
       <c r="AZ15">
-        <v>143.53</v>
+        <v>179.99</v>
       </c>
       <c r="BA15">
-        <v>177.41</v>
+        <v>171.1</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B16">
-        <v>49.01</v>
+        <v>38.11</v>
       </c>
       <c r="C16">
-        <v>38.090000000000003</v>
+        <v>25.52</v>
       </c>
       <c r="D16">
-        <v>25.54</v>
+        <v>19.63</v>
       </c>
       <c r="E16">
-        <v>19.63</v>
+        <v>13.42</v>
       </c>
       <c r="F16">
-        <v>13.42</v>
+        <v>10.29</v>
       </c>
       <c r="G16">
-        <v>10.27</v>
+        <v>7.72</v>
       </c>
       <c r="H16">
-        <v>7.67</v>
+        <v>6.82</v>
       </c>
       <c r="I16">
-        <v>6.88</v>
+        <v>6.23</v>
       </c>
       <c r="J16">
-        <v>6.23</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="K16">
-        <v>4.3899999999999997</v>
+        <v>4.79</v>
       </c>
       <c r="L16">
-        <v>4.79</v>
+        <v>7.71</v>
       </c>
       <c r="M16">
-        <v>7.71</v>
+        <v>6.42</v>
       </c>
       <c r="N16">
-        <v>6.42</v>
+        <v>6.21</v>
       </c>
       <c r="O16">
-        <v>6.21</v>
+        <v>4.47</v>
       </c>
       <c r="P16">
-        <v>4.47</v>
+        <v>6.07</v>
       </c>
       <c r="Q16">
-        <v>6.07</v>
+        <v>8.06</v>
       </c>
       <c r="R16">
-        <v>8.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="S16">
-        <v>10.050000000000001</v>
+        <v>11.96</v>
       </c>
       <c r="T16">
-        <v>11.96</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="U16">
-        <v>16.510000000000002</v>
+        <v>23.55</v>
       </c>
       <c r="V16">
-        <v>23.55</v>
+        <v>24.06</v>
       </c>
       <c r="W16">
-        <v>24.06</v>
+        <v>22.82</v>
       </c>
       <c r="X16">
-        <v>22.82</v>
+        <v>24.24</v>
       </c>
       <c r="Y16">
-        <v>24.24</v>
+        <v>29.22</v>
       </c>
       <c r="Z16">
-        <v>29.22</v>
+        <v>28.36</v>
       </c>
       <c r="AA16">
-        <v>28.36</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="AB16">
-        <v>34.409999999999997</v>
+        <v>52.95</v>
       </c>
       <c r="AC16">
-        <v>52.97</v>
+        <v>88.3</v>
       </c>
       <c r="AD16">
-        <v>88.3</v>
+        <v>144.16999999999999</v>
       </c>
       <c r="AE16">
-        <v>144.11000000000001</v>
+        <v>203.71</v>
       </c>
       <c r="AF16">
-        <v>203.71</v>
+        <v>219.81</v>
       </c>
       <c r="AG16">
-        <v>219.79</v>
+        <v>210.84</v>
       </c>
       <c r="AH16">
-        <v>210.86</v>
+        <v>195.78</v>
       </c>
       <c r="AI16">
-        <v>195.8</v>
+        <v>177.5</v>
       </c>
       <c r="AJ16">
-        <v>177.5</v>
+        <v>180.29</v>
       </c>
       <c r="AK16">
-        <v>180.26</v>
+        <v>212.85</v>
       </c>
       <c r="AL16">
+        <v>238.74</v>
+      </c>
+      <c r="AM16">
+        <v>185.97</v>
+      </c>
+      <c r="AN16">
+        <v>165.99</v>
+      </c>
+      <c r="AO16">
         <v>212.89</v>
       </c>
-      <c r="AM16">
-        <v>238.74</v>
-      </c>
-      <c r="AN16">
-        <v>185.97</v>
-      </c>
-      <c r="AO16">
-        <v>165.95</v>
-      </c>
       <c r="AP16">
-        <v>212.81</v>
+        <v>168.27</v>
       </c>
       <c r="AQ16">
-        <v>168.23</v>
+        <v>126.14</v>
       </c>
       <c r="AR16">
-        <v>126.14</v>
+        <v>105.47</v>
       </c>
       <c r="AS16">
-        <v>105.41</v>
+        <v>88.44</v>
       </c>
       <c r="AT16">
-        <v>88.38</v>
+        <v>72.13</v>
       </c>
       <c r="AU16">
-        <v>72.17</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="AV16">
-        <v>76.86</v>
+        <v>81.92</v>
       </c>
       <c r="AW16">
-        <v>81.94</v>
+        <v>84.26</v>
       </c>
       <c r="AX16">
-        <v>84.28</v>
+        <v>107.89</v>
       </c>
       <c r="AY16">
-        <v>107.83</v>
+        <v>138.46</v>
       </c>
       <c r="AZ16">
-        <v>138.08000000000001</v>
+        <v>166.54</v>
       </c>
       <c r="BA16">
-        <v>163.44999999999999</v>
+        <v>163.27000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B17">
-        <v>48.72</v>
+        <v>37.69</v>
       </c>
       <c r="C17">
-        <v>37.65</v>
+        <v>26.71</v>
       </c>
       <c r="D17">
-        <v>26.73</v>
+        <v>20.87</v>
       </c>
       <c r="E17">
-        <v>20.85</v>
+        <v>12.91</v>
       </c>
       <c r="F17">
-        <v>12.91</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>9.09</v>
       </c>
       <c r="H17">
-        <v>9.07</v>
+        <v>6.84</v>
       </c>
       <c r="I17">
-        <v>6.84</v>
+        <v>6.27</v>
       </c>
       <c r="J17">
-        <v>6.27</v>
+        <v>4.97</v>
       </c>
       <c r="K17">
-        <v>4.97</v>
+        <v>5.4</v>
       </c>
       <c r="L17">
-        <v>5.4</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="M17">
-        <v>8.2200000000000006</v>
+        <v>5.64</v>
       </c>
       <c r="N17">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="O17">
-        <v>5.6</v>
+        <v>5.14</v>
       </c>
       <c r="P17">
-        <v>5.14</v>
+        <v>6.51</v>
       </c>
       <c r="Q17">
-        <v>6.51</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R17">
-        <v>8.1999999999999993</v>
+        <v>11.31</v>
       </c>
       <c r="S17">
-        <v>11.31</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="T17">
-        <v>16.170000000000002</v>
+        <v>25.28</v>
       </c>
       <c r="U17">
-        <v>25.28</v>
+        <v>33.5</v>
       </c>
       <c r="V17">
-        <v>33.5</v>
+        <v>28.82</v>
       </c>
       <c r="W17">
-        <v>28.82</v>
+        <v>27.15</v>
       </c>
       <c r="X17">
-        <v>27.12</v>
+        <v>27.88</v>
       </c>
       <c r="Y17">
-        <v>27.91</v>
+        <v>32.94</v>
       </c>
       <c r="Z17">
-        <v>32.92</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="AA17">
-        <v>34.35</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AB17">
-        <v>37.799999999999997</v>
+        <v>60.5</v>
       </c>
       <c r="AC17">
-        <v>60.5</v>
+        <v>95.13</v>
       </c>
       <c r="AD17">
-        <v>95.13</v>
+        <v>163.92</v>
       </c>
       <c r="AE17">
-        <v>163.85</v>
+        <v>226.19</v>
       </c>
       <c r="AF17">
-        <v>226.15</v>
+        <v>254.73</v>
       </c>
       <c r="AG17">
-        <v>254.77</v>
+        <v>239.45</v>
       </c>
       <c r="AH17">
-        <v>239.45</v>
+        <v>221.72</v>
       </c>
       <c r="AI17">
-        <v>221.75</v>
+        <v>194.1</v>
       </c>
       <c r="AJ17">
-        <v>194.08</v>
+        <v>199.5</v>
       </c>
       <c r="AK17">
-        <v>199.5</v>
+        <v>234.22</v>
       </c>
       <c r="AL17">
-        <v>234.24</v>
+        <v>262.74</v>
       </c>
       <c r="AM17">
-        <v>262.70999999999998</v>
+        <v>196.94</v>
       </c>
       <c r="AN17">
-        <v>196.94</v>
+        <v>186.64</v>
       </c>
       <c r="AO17">
-        <v>186.64</v>
+        <v>236.31</v>
       </c>
       <c r="AP17">
-        <v>236.22</v>
+        <v>184.81</v>
       </c>
       <c r="AQ17">
-        <v>184.77</v>
+        <v>139.83000000000001</v>
       </c>
       <c r="AR17">
-        <v>139.72</v>
+        <v>113.77</v>
       </c>
       <c r="AS17">
-        <v>113.73</v>
+        <v>95.15</v>
       </c>
       <c r="AT17">
-        <v>95.13</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="AU17">
-        <v>79.31</v>
+        <v>86.06</v>
       </c>
       <c r="AV17">
-        <v>86.04</v>
+        <v>91.22</v>
       </c>
       <c r="AW17">
-        <v>91.16</v>
+        <v>95.61</v>
       </c>
       <c r="AX17">
-        <v>95.52</v>
+        <v>118.22</v>
       </c>
       <c r="AY17">
-        <v>118.13</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="AZ17">
-        <v>149.72999999999999</v>
+        <v>186.59</v>
       </c>
       <c r="BA17">
-        <v>183.08</v>
+        <v>183.03</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B18">
-        <v>27.34</v>
+        <v>21.7</v>
       </c>
       <c r="C18">
-        <v>21.7</v>
+        <v>14.5</v>
       </c>
       <c r="D18">
-        <v>14.5</v>
+        <v>10.23</v>
       </c>
       <c r="E18">
-        <v>10.210000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="F18">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="G18">
-        <v>6.6</v>
+        <v>4.62</v>
       </c>
       <c r="H18">
-        <v>4.6500000000000004</v>
+        <v>3.86</v>
       </c>
       <c r="I18">
-        <v>3.86</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J18">
-        <v>4.09</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K18">
-        <v>4.0599999999999996</v>
+        <v>2.82</v>
       </c>
       <c r="L18">
-        <v>2.82</v>
+        <v>6.09</v>
       </c>
       <c r="M18">
-        <v>6.09</v>
+        <v>4.29</v>
       </c>
       <c r="N18">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.81</v>
       </c>
       <c r="P18">
-        <v>3.81</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="Q18">
-        <v>4.8499999999999996</v>
+        <v>6.27</v>
       </c>
       <c r="R18">
-        <v>6.27</v>
+        <v>9.24</v>
       </c>
       <c r="S18">
-        <v>9.2100000000000009</v>
+        <v>13.76</v>
       </c>
       <c r="T18">
-        <v>13.76</v>
+        <v>18.84</v>
       </c>
       <c r="U18">
-        <v>18.84</v>
+        <v>22.34</v>
       </c>
       <c r="V18">
-        <v>22.34</v>
+        <v>21.17</v>
       </c>
       <c r="W18">
-        <v>21.17</v>
+        <v>19.55</v>
       </c>
       <c r="X18">
-        <v>19.55</v>
+        <v>21.1</v>
       </c>
       <c r="Y18">
-        <v>21.1</v>
+        <v>26.4</v>
       </c>
       <c r="Z18">
-        <v>26.38</v>
+        <v>26.53</v>
       </c>
       <c r="AA18">
-        <v>26.53</v>
+        <v>33.74</v>
       </c>
       <c r="AB18">
-        <v>33.74</v>
+        <v>52.47</v>
       </c>
       <c r="AC18">
-        <v>52.47</v>
+        <v>75.17</v>
       </c>
       <c r="AD18">
-        <v>75.17</v>
+        <v>123.35</v>
       </c>
       <c r="AE18">
-        <v>123.35</v>
+        <v>182.62</v>
       </c>
       <c r="AF18">
-        <v>182.6</v>
+        <v>213.49</v>
       </c>
       <c r="AG18">
-        <v>213.47</v>
+        <v>221.03</v>
       </c>
       <c r="AH18">
-        <v>221.06</v>
+        <v>208.29</v>
       </c>
       <c r="AI18">
-        <v>208.26</v>
+        <v>189.33</v>
       </c>
       <c r="AJ18">
-        <v>189.35</v>
+        <v>196.15</v>
       </c>
       <c r="AK18">
-        <v>196.13</v>
+        <v>224.31</v>
       </c>
       <c r="AL18">
-        <v>224.33</v>
+        <v>215.02</v>
       </c>
       <c r="AM18">
-        <v>215.02</v>
+        <v>149.19</v>
       </c>
       <c r="AN18">
-        <v>149.11000000000001</v>
+        <v>125.79</v>
       </c>
       <c r="AO18">
-        <v>125.73</v>
+        <v>161.99</v>
       </c>
       <c r="AP18">
-        <v>161.96</v>
+        <v>137.26</v>
       </c>
       <c r="AQ18">
-        <v>137.31</v>
+        <v>106.8</v>
       </c>
       <c r="AR18">
-        <v>106.75</v>
+        <v>88.21</v>
       </c>
       <c r="AS18">
-        <v>88.19</v>
+        <v>74.25</v>
       </c>
       <c r="AT18">
-        <v>74.23</v>
+        <v>60.39</v>
       </c>
       <c r="AU18">
-        <v>60.39</v>
+        <v>66.61</v>
       </c>
       <c r="AV18">
-        <v>66.61</v>
+        <v>78.09</v>
       </c>
       <c r="AW18">
-        <v>78.09</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="AX18">
-        <v>81.84</v>
+        <v>104.31</v>
       </c>
       <c r="AY18">
-        <v>104.16</v>
+        <v>140.99</v>
       </c>
       <c r="AZ18">
-        <v>140.51</v>
+        <v>182.45</v>
       </c>
       <c r="BA18">
-        <v>179.25</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
+      <c r="A19" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B19">
+        <v>8.26</v>
+      </c>
+      <c r="C19">
+        <v>6.37</v>
+      </c>
+      <c r="D19">
+        <v>5.08</v>
+      </c>
+      <c r="E19">
+        <v>3.67</v>
+      </c>
+      <c r="F19">
+        <v>3.38</v>
+      </c>
+      <c r="G19">
+        <v>3.19</v>
+      </c>
+      <c r="H19">
+        <v>2.89</v>
+      </c>
+      <c r="I19">
+        <v>3.21</v>
+      </c>
+      <c r="J19">
+        <v>2.78</v>
+      </c>
+      <c r="K19">
+        <v>3.21</v>
+      </c>
+      <c r="L19">
+        <v>5.19</v>
+      </c>
+      <c r="M19">
+        <v>3.94</v>
+      </c>
+      <c r="N19">
+        <v>2.84</v>
+      </c>
+      <c r="O19">
+        <v>2.78</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>5.16</v>
+      </c>
+      <c r="R19">
+        <v>6.78</v>
+      </c>
+      <c r="S19">
+        <v>9.83</v>
+      </c>
+      <c r="T19">
+        <v>14.69</v>
+      </c>
+      <c r="U19">
+        <v>15.58</v>
+      </c>
+      <c r="V19">
+        <v>13.04</v>
+      </c>
+      <c r="W19">
         <v>11.61</v>
       </c>
-      <c r="C19">
-        <v>8.26</v>
-      </c>
-      <c r="D19">
-        <v>6.37</v>
-      </c>
-      <c r="E19">
-        <v>5.08</v>
-      </c>
-      <c r="F19">
-        <v>3.67</v>
-      </c>
-      <c r="G19">
-        <v>3.38</v>
-      </c>
-      <c r="H19">
-        <v>3.16</v>
-      </c>
-      <c r="I19">
-        <v>2.92</v>
-      </c>
-      <c r="J19">
-        <v>3.21</v>
-      </c>
-      <c r="K19">
-        <v>2.78</v>
-      </c>
-      <c r="L19">
-        <v>3.21</v>
-      </c>
-      <c r="M19">
-        <v>5.19</v>
-      </c>
-      <c r="N19">
-        <v>3.94</v>
-      </c>
-      <c r="O19">
-        <v>2.84</v>
-      </c>
-      <c r="P19">
-        <v>2.75</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19">
-        <v>5.16</v>
-      </c>
-      <c r="S19">
-        <v>6.78</v>
-      </c>
-      <c r="T19">
-        <v>9.83</v>
-      </c>
-      <c r="U19">
-        <v>14.66</v>
-      </c>
-      <c r="V19">
-        <v>15.58</v>
-      </c>
-      <c r="W19">
-        <v>13.04</v>
-      </c>
       <c r="X19">
-        <v>11.61</v>
+        <v>13.45</v>
       </c>
       <c r="Y19">
-        <v>13.45</v>
+        <v>13.99</v>
       </c>
       <c r="Z19">
-        <v>13.99</v>
+        <v>15.8</v>
       </c>
       <c r="AA19">
-        <v>15.8</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="AB19">
-        <v>19.12</v>
+        <v>30.84</v>
       </c>
       <c r="AC19">
-        <v>30.81</v>
+        <v>44.61</v>
       </c>
       <c r="AD19">
-        <v>44.64</v>
+        <v>73.97</v>
       </c>
       <c r="AE19">
-        <v>73.97</v>
+        <v>110.35</v>
       </c>
       <c r="AF19">
-        <v>110.29</v>
+        <v>128.84</v>
       </c>
       <c r="AG19">
-        <v>128.84</v>
+        <v>144.08000000000001</v>
       </c>
       <c r="AH19">
-        <v>144.1</v>
+        <v>143.21</v>
       </c>
       <c r="AI19">
-        <v>143.21</v>
+        <v>140.16</v>
       </c>
       <c r="AJ19">
-        <v>140.16</v>
+        <v>139.35</v>
       </c>
       <c r="AK19">
-        <v>139.32</v>
+        <v>153.77000000000001</v>
       </c>
       <c r="AL19">
-        <v>153.74</v>
+        <v>142.78</v>
       </c>
       <c r="AM19">
-        <v>142.81</v>
+        <v>91.25</v>
       </c>
       <c r="AN19">
-        <v>91.2</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="AO19">
-        <v>71.48</v>
+        <v>89.82</v>
       </c>
       <c r="AP19">
-        <v>89.74</v>
+        <v>73.56</v>
       </c>
       <c r="AQ19">
-        <v>73.56</v>
+        <v>59.98</v>
       </c>
       <c r="AR19">
-        <v>60.01</v>
+        <v>50.72</v>
       </c>
       <c r="AS19">
-        <v>50.74</v>
+        <v>46.61</v>
       </c>
       <c r="AT19">
-        <v>46.61</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="AU19">
-        <v>38.11</v>
+        <v>42.64</v>
       </c>
       <c r="AV19">
-        <v>42.64</v>
+        <v>50.91</v>
       </c>
       <c r="AW19">
-        <v>50.91</v>
+        <v>62.44</v>
       </c>
       <c r="AX19">
-        <v>62.44</v>
+        <v>77.59</v>
       </c>
       <c r="AY19">
-        <v>77.56</v>
+        <v>112.51</v>
       </c>
       <c r="AZ19">
-        <v>112.07</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="BA19">
-        <v>151.96</v>
+        <v>129.44</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
+      <c r="A20" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>7.86</v>
+        <v>6.36</v>
       </c>
       <c r="C20">
-        <v>6.36</v>
+        <v>4.37</v>
       </c>
       <c r="D20">
-        <v>4.37</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E20">
-        <v>4.1100000000000003</v>
+        <v>3.22</v>
       </c>
       <c r="F20">
-        <v>3.22</v>
+        <v>2.82</v>
       </c>
       <c r="G20">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="H20">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="I20">
-        <v>2.15</v>
+        <v>3.03</v>
       </c>
       <c r="J20">
-        <v>3.03</v>
+        <v>2.66</v>
       </c>
       <c r="K20">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
+        <v>4.72</v>
+      </c>
+      <c r="M20">
+        <v>3.7</v>
+      </c>
+      <c r="N20">
         <v>3.3</v>
       </c>
-      <c r="M20">
-        <v>4.72</v>
-      </c>
-      <c r="N20">
-        <v>3.7</v>
-      </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="P20">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="Q20">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="R20">
-        <v>4.05</v>
+        <v>5.31</v>
       </c>
       <c r="S20">
-        <v>5.31</v>
+        <v>7.65</v>
       </c>
       <c r="T20">
-        <v>7.65</v>
+        <v>10.95</v>
       </c>
       <c r="U20">
-        <v>10.95</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="V20">
-        <v>10.199999999999999</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="W20">
-        <v>9.4700000000000006</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="X20">
-        <v>8.5299999999999994</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="Y20">
-        <v>8.7200000000000006</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="Z20">
-        <v>9.5299999999999994</v>
+        <v>10.41</v>
       </c>
       <c r="AA20">
-        <v>10.41</v>
+        <v>11.59</v>
       </c>
       <c r="AB20">
-        <v>11.59</v>
+        <v>16.82</v>
       </c>
       <c r="AC20">
-        <v>16.77</v>
+        <v>26.11</v>
       </c>
       <c r="AD20">
-        <v>26.03</v>
+        <v>49.16</v>
       </c>
       <c r="AE20">
-        <v>49.16</v>
+        <v>74.91</v>
       </c>
       <c r="AF20">
-        <v>74.91</v>
+        <v>90.23</v>
       </c>
       <c r="AG20">
-        <v>90.18</v>
+        <v>96.97</v>
       </c>
       <c r="AH20">
-        <v>97.02</v>
+        <v>105.13</v>
       </c>
       <c r="AI20">
-        <v>105.1</v>
+        <v>102.36</v>
       </c>
       <c r="AJ20">
-        <v>102.36</v>
+        <v>98.79</v>
       </c>
       <c r="AK20">
-        <v>98.77</v>
+        <v>114.52</v>
       </c>
       <c r="AL20">
-        <v>114.54</v>
+        <v>115.67</v>
       </c>
       <c r="AM20">
-        <v>115.67</v>
+        <v>81.19</v>
       </c>
       <c r="AN20">
-        <v>81.22</v>
+        <v>52.03</v>
       </c>
       <c r="AO20">
-        <v>52.03</v>
+        <v>64.23</v>
       </c>
       <c r="AP20">
-        <v>64.209999999999994</v>
+        <v>59.16</v>
       </c>
       <c r="AQ20">
-        <v>59.19</v>
+        <v>51.01</v>
       </c>
       <c r="AR20">
-        <v>51.01</v>
+        <v>44.11</v>
       </c>
       <c r="AS20">
-        <v>44.08</v>
+        <v>42.98</v>
       </c>
       <c r="AT20">
-        <v>42.98</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AU20">
-        <v>37.299999999999997</v>
+        <v>41.67</v>
       </c>
       <c r="AV20">
-        <v>41.67</v>
+        <v>53.88</v>
       </c>
       <c r="AW20">
-        <v>53.88</v>
+        <v>73.3</v>
       </c>
       <c r="AX20">
-        <v>73.25</v>
+        <v>98.58</v>
       </c>
       <c r="AY20">
-        <v>98.61</v>
+        <v>127.83</v>
       </c>
       <c r="AZ20">
-        <v>127.64</v>
+        <v>179.53</v>
       </c>
       <c r="BA20">
-        <v>176.95</v>
+        <v>137.62</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B21">
-        <v>6.87</v>
+        <v>5.98</v>
       </c>
       <c r="C21">
-        <v>5.98</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D21">
+        <v>4.67</v>
+      </c>
+      <c r="E21">
+        <v>3.33</v>
+      </c>
+      <c r="F21">
+        <v>3.48</v>
+      </c>
+      <c r="G21">
+        <v>2.93</v>
+      </c>
+      <c r="H21">
+        <v>3.13</v>
+      </c>
+      <c r="I21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J21">
+        <v>2.7</v>
+      </c>
+      <c r="K21">
+        <v>2.78</v>
+      </c>
+      <c r="L21">
+        <v>4.01</v>
+      </c>
+      <c r="M21">
+        <v>3.41</v>
+      </c>
+      <c r="N21">
+        <v>3.56</v>
+      </c>
+      <c r="O21">
+        <v>3.71</v>
+      </c>
+      <c r="P21">
+        <v>3.53</v>
+      </c>
+      <c r="Q21">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E21">
-        <v>4.67</v>
-      </c>
-      <c r="F21">
-        <v>3.33</v>
-      </c>
-      <c r="G21">
-        <v>3.48</v>
-      </c>
-      <c r="H21">
-        <v>2.93</v>
-      </c>
-      <c r="I21">
-        <v>3.13</v>
-      </c>
-      <c r="J21">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K21">
-        <v>2.7</v>
-      </c>
-      <c r="L21">
-        <v>2.78</v>
-      </c>
-      <c r="M21">
-        <v>4.01</v>
-      </c>
-      <c r="N21">
-        <v>3.41</v>
-      </c>
-      <c r="O21">
-        <v>3.56</v>
-      </c>
-      <c r="P21">
-        <v>3.71</v>
-      </c>
-      <c r="Q21">
-        <v>3.53</v>
-      </c>
       <c r="R21">
-        <v>4.0599999999999996</v>
+        <v>3.79</v>
       </c>
       <c r="S21">
-        <v>3.79</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="T21">
-        <v>4.7699999999999996</v>
+        <v>6.97</v>
       </c>
       <c r="U21">
-        <v>6.97</v>
+        <v>7.14</v>
       </c>
       <c r="V21">
-        <v>7.14</v>
+        <v>5.63</v>
       </c>
       <c r="W21">
-        <v>5.63</v>
+        <v>5.73</v>
       </c>
       <c r="X21">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="Y21">
-        <v>5.71</v>
+        <v>7.35</v>
       </c>
       <c r="Z21">
-        <v>7.35</v>
+        <v>7.6</v>
       </c>
       <c r="AA21">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AB21">
-        <v>8.1999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="AC21">
-        <v>13.23</v>
+        <v>22.42</v>
       </c>
       <c r="AD21">
-        <v>22.37</v>
+        <v>36.75</v>
       </c>
       <c r="AE21">
-        <v>36.75</v>
+        <v>56.42</v>
       </c>
       <c r="AF21">
-        <v>56.42</v>
+        <v>60.96</v>
       </c>
       <c r="AG21">
-        <v>60.94</v>
+        <v>61.09</v>
       </c>
       <c r="AH21">
-        <v>61.12</v>
+        <v>60.05</v>
       </c>
       <c r="AI21">
-        <v>60.03</v>
+        <v>58.74</v>
       </c>
       <c r="AJ21">
-        <v>58.74</v>
+        <v>58.21</v>
       </c>
       <c r="AK21">
-        <v>58.21</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="AL21">
-        <v>67.349999999999994</v>
+        <v>78.58</v>
       </c>
       <c r="AM21">
-        <v>78.58</v>
+        <v>53.39</v>
       </c>
       <c r="AN21">
-        <v>53.44</v>
+        <v>38.65</v>
       </c>
       <c r="AO21">
-        <v>38.67</v>
+        <v>48.29</v>
       </c>
       <c r="AP21">
-        <v>48.29</v>
+        <v>46.98</v>
       </c>
       <c r="AQ21">
-        <v>47</v>
+        <v>42.89</v>
       </c>
       <c r="AR21">
-        <v>42.94</v>
+        <v>38.72</v>
       </c>
       <c r="AS21">
-        <v>38.75</v>
+        <v>38.17</v>
       </c>
       <c r="AT21">
-        <v>38.17</v>
+        <v>34</v>
       </c>
       <c r="AU21">
-        <v>34</v>
+        <v>34.74</v>
       </c>
       <c r="AV21">
-        <v>34.74</v>
+        <v>47.69</v>
       </c>
       <c r="AW21">
-        <v>47.71</v>
+        <v>60.18</v>
       </c>
       <c r="AX21">
-        <v>60.18</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="AY21">
-        <v>75.61</v>
+        <v>102.44</v>
       </c>
       <c r="AZ21">
-        <v>102.14</v>
+        <v>126.98</v>
       </c>
       <c r="BA21">
-        <v>125.23</v>
+        <v>111.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>